--- a/Downscaleddata/pdfs/bottom thetao_pdf.xlsx
+++ b/Downscaleddata/pdfs/bottom thetao_pdf.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.416637374823894</v>
+        <v>4.669953549738531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D2" t="n">
-        <v>5.916097426806319</v>
+        <v>4.654237057507927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000249642053585514</v>
+        <v>0.0001889147465774385</v>
       </c>
       <c r="F2" t="n">
-        <v>5.916097426806319</v>
+        <v>4.654237057507927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002811791756662452</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H2" t="n">
-        <v>5.416637374823894</v>
+        <v>4.669953549738531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0001984722555595117</v>
       </c>
       <c r="J2" t="n">
-        <v>5.416637374823894</v>
+        <v>4.669953549738531</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.450177196336526</v>
+        <v>4.72682579032497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D3" t="n">
-        <v>5.949899492795879</v>
+        <v>4.702713668005554</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002698025359304633</v>
+        <v>0.0001984811746617862</v>
       </c>
       <c r="F3" t="n">
-        <v>5.949899492795879</v>
+        <v>4.702713668005554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002811791756662452</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H3" t="n">
-        <v>5.450177196336526</v>
+        <v>4.72682579032497</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0001984722555595117</v>
       </c>
       <c r="J3" t="n">
-        <v>5.450177196336526</v>
+        <v>4.72682579032497</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.483717017849157</v>
+        <v>4.783698030911408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D4" t="n">
-        <v>5.983701558785439</v>
+        <v>4.75119027850318</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002992508649207417</v>
+        <v>0.0002123918941094589</v>
       </c>
       <c r="F4" t="n">
-        <v>5.983701558785439</v>
+        <v>4.75119027850318</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002811791756662452</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H4" t="n">
-        <v>5.483717017849157</v>
+        <v>4.783698030911408</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0001984722555595117</v>
       </c>
       <c r="J4" t="n">
-        <v>5.483717017849157</v>
+        <v>4.783698030911408</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.51725683936179</v>
+        <v>4.840570271497847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D5" t="n">
-        <v>6.017503624774999</v>
+        <v>4.799666889000807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003414554156063599</v>
+        <v>0.0002337564454522819</v>
       </c>
       <c r="F5" t="n">
-        <v>6.017503624774999</v>
+        <v>4.799666889000807</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002846784451254924</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H5" t="n">
-        <v>5.51725683936179</v>
+        <v>4.840570271497847</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0001984722555595117</v>
       </c>
       <c r="J5" t="n">
-        <v>5.51725683936179</v>
+        <v>4.840570271497847</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.550796660874421</v>
+        <v>4.897442512084286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D6" t="n">
-        <v>6.051305690764559</v>
+        <v>4.848143499498432</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004010558168750427</v>
+        <v>0.0002688013314450373</v>
       </c>
       <c r="F6" t="n">
-        <v>6.051305690764559</v>
+        <v>4.848143499498432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002982807020998249</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H6" t="n">
-        <v>5.550796660874421</v>
+        <v>4.897442512084286</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0001984722555595117</v>
       </c>
       <c r="J6" t="n">
-        <v>5.550796660874421</v>
+        <v>4.897442512084286</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.584336482387052</v>
+        <v>4.954314752670725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D7" t="n">
-        <v>6.085107756754119</v>
+        <v>4.896620109996059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000488390767534177</v>
+        <v>0.0003345630694341743</v>
       </c>
       <c r="F7" t="n">
-        <v>6.085107756754119</v>
+        <v>4.896620109996059</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003162656314965544</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H7" t="n">
-        <v>5.584336482387052</v>
+        <v>4.954314752670725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0002063646204965288</v>
       </c>
       <c r="J7" t="n">
-        <v>5.584336482387052</v>
+        <v>4.954314752670725</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.617876303899684</v>
+        <v>5.011186993257163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D8" t="n">
-        <v>6.118909822743679</v>
+        <v>4.945096720493686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006080446631503151</v>
+        <v>0.0004313100866080548</v>
       </c>
       <c r="F8" t="n">
-        <v>6.118909822743679</v>
+        <v>4.945096720493686</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003398510199195733</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H8" t="n">
-        <v>5.617876303899684</v>
+        <v>5.011186993257163</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0002221670441110167</v>
       </c>
       <c r="J8" t="n">
-        <v>5.617876303899684</v>
+        <v>5.011186993257163</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.651416125412316</v>
+        <v>5.068059233843602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D9" t="n">
-        <v>6.152711888733239</v>
+        <v>4.993573330991311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0007691832481567572</v>
+        <v>0.0005754654923538714</v>
       </c>
       <c r="F9" t="n">
-        <v>6.152711888733239</v>
+        <v>4.993573330991311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003705290869741807</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H9" t="n">
-        <v>5.651416125412316</v>
+        <v>5.068059233843602</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0002474446641422887</v>
       </c>
       <c r="J9" t="n">
-        <v>5.651416125412316</v>
+        <v>5.068059233843602</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.684955946924948</v>
+        <v>5.124931474430041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D10" t="n">
-        <v>6.186513954722799</v>
+        <v>5.042049941488938</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0009885120688961171</v>
+        <v>0.0007720679877629469</v>
       </c>
       <c r="F10" t="n">
-        <v>6.186513954722799</v>
+        <v>5.042049941488938</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004101092967309183</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H10" t="n">
-        <v>5.684955946924948</v>
+        <v>5.124931474430041</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0002853416371698448</v>
       </c>
       <c r="J10" t="n">
-        <v>5.684955946924948</v>
+        <v>5.124931474430041</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.718495768437579</v>
+        <v>5.18180371501648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D11" t="n">
-        <v>6.220316020712359</v>
+        <v>5.090526551986565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001308351973461385</v>
+        <v>0.00104464304944947</v>
       </c>
       <c r="F11" t="n">
-        <v>6.220316020712359</v>
+        <v>5.090526551986565</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004607626462207307</v>
+        <v>0.000160144390313142</v>
       </c>
       <c r="H11" t="n">
-        <v>5.718495768437579</v>
+        <v>5.18180371501648</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.000342179213328155</v>
       </c>
       <c r="J11" t="n">
-        <v>5.718495768437579</v>
+        <v>5.18180371501648</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.752035589950211</v>
+        <v>5.238675955602918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D12" t="n">
-        <v>6.254118086701919</v>
+        <v>5.13900316248419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001732837392165134</v>
+        <v>0.00140097183263827</v>
       </c>
       <c r="F12" t="n">
-        <v>6.254118086701919</v>
+        <v>5.13900316248419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005250659728098096</v>
+        <v>0.0001606388181686468</v>
       </c>
       <c r="H12" t="n">
-        <v>5.752035589950211</v>
+        <v>5.238675955602918</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0004467579120618411</v>
       </c>
       <c r="J12" t="n">
-        <v>5.752035589950211</v>
+        <v>5.238675955602918</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0001551447243687232</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.785575411462843</v>
+        <v>5.295548196189357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D13" t="n">
-        <v>6.287920152691479</v>
+        <v>5.187479772981817</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002302209834294565</v>
+        <v>0.001859944671679135</v>
       </c>
       <c r="F13" t="n">
-        <v>6.287920152691479</v>
+        <v>5.187479772981817</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006060444333027197</v>
+        <v>0.0001657474939971657</v>
       </c>
       <c r="H13" t="n">
-        <v>5.785575411462843</v>
+        <v>5.295548196189357</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0006131488434553755</v>
       </c>
       <c r="J13" t="n">
-        <v>5.785575411462843</v>
+        <v>5.295548196189357</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0001625228066897975</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.819115232975475</v>
+        <v>5.352420436775796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D14" t="n">
-        <v>6.321722218681039</v>
+        <v>5.235956383479443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003042088128505182</v>
+        <v>0.002432309228151874</v>
       </c>
       <c r="F14" t="n">
-        <v>6.321722218681039</v>
+        <v>5.235956383479443</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000707209927021774</v>
+        <v>0.0001729810435973485</v>
       </c>
       <c r="H14" t="n">
-        <v>5.819115232975475</v>
+        <v>5.352420436775796</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.0008638218833555512</v>
       </c>
       <c r="J14" t="n">
-        <v>5.819115232975475</v>
+        <v>5.352420436775796</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0001729651634498184</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.852655054488106</v>
+        <v>5.409292677362235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D15" t="n">
-        <v>6.355524284670599</v>
+        <v>5.284432993977069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004045682970960801</v>
+        <v>0.003160527072844123</v>
       </c>
       <c r="F15" t="n">
-        <v>6.355524284670599</v>
+        <v>5.284432993977069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0008325928902730423</v>
+        <v>0.000183085461699823</v>
       </c>
       <c r="H15" t="n">
-        <v>5.852655054488106</v>
+        <v>5.409292677362235</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000267595115082381</v>
+        <v>0.001219354298801182</v>
       </c>
       <c r="J15" t="n">
-        <v>5.852655054488106</v>
+        <v>5.409292677362235</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0001882243400496615</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.886194876000737</v>
+        <v>5.466164917948674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D16" t="n">
-        <v>6.389326350660159</v>
+        <v>5.332909604474696</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005334204269038715</v>
+        <v>0.004044232396662124</v>
       </c>
       <c r="F16" t="n">
-        <v>6.389326350660159</v>
+        <v>5.332909604474696</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0009867646115717917</v>
+        <v>0.0001970181580081759</v>
       </c>
       <c r="H16" t="n">
-        <v>5.886194876000737</v>
+        <v>5.466164917948674</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002697207971920145</v>
+        <v>0.001716503960286425</v>
       </c>
       <c r="J16" t="n">
-        <v>5.886194876000737</v>
+        <v>5.466164917948674</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0002098749011494231</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.91973469751337</v>
+        <v>5.523037158535113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D17" t="n">
-        <v>6.423128416649719</v>
+        <v>5.381386214972322</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006964364700348636</v>
+        <v>0.005115601483460965</v>
       </c>
       <c r="F17" t="n">
-        <v>6.423128416649719</v>
+        <v>5.381386214972322</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001174847038661156</v>
+        <v>0.0002161102534781917</v>
       </c>
       <c r="H17" t="n">
-        <v>5.91973469751337</v>
+        <v>5.523037158535113</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002795402788832981</v>
+        <v>0.002396175009774485</v>
       </c>
       <c r="J17" t="n">
-        <v>5.91973469751337</v>
+        <v>5.523037158535113</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0002396776022127793</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.953274519026001</v>
+        <v>5.579909399121552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D18" t="n">
-        <v>6.456930482639279</v>
+        <v>5.429862825469948</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009020465512165513</v>
+        <v>0.006389948818709159</v>
       </c>
       <c r="F18" t="n">
-        <v>6.456930482639279</v>
+        <v>5.429862825469948</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001402507002096215</v>
+        <v>0.0002427740652480787</v>
       </c>
       <c r="H18" t="n">
-        <v>5.953274519026001</v>
+        <v>5.579909399121552</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002935182997433474</v>
+        <v>0.003301339946567016</v>
       </c>
       <c r="J18" t="n">
-        <v>5.953274519026001</v>
+        <v>5.579909399121552</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0002820109703222628</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.986814340538633</v>
+        <v>5.636781639707991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002249788240678194</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D19" t="n">
-        <v>6.49073254862884</v>
+        <v>5.478339435967575</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01165160576418382</v>
+        <v>0.007903910683081735</v>
       </c>
       <c r="F19" t="n">
-        <v>6.49073254862884</v>
+        <v>5.478339435967575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001675931895019651</v>
+        <v>0.0002783830633635464</v>
       </c>
       <c r="H19" t="n">
-        <v>5.986814340538633</v>
+        <v>5.636781639707991</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003226129919533734</v>
+        <v>0.004493160746903685</v>
       </c>
       <c r="J19" t="n">
-        <v>5.986814340538633</v>
+        <v>5.636781639707991</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0003381858202040539</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.020354162051264</v>
+        <v>5.693653880294429</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002428966525462021</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D20" t="n">
-        <v>6.5245346146184</v>
+        <v>5.526816046465201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01493479338272267</v>
+        <v>0.009651888016110296</v>
       </c>
       <c r="F20" t="n">
-        <v>6.5245346146184</v>
+        <v>5.526816046465201</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002001784147374114</v>
+        <v>0.0003253343671915687</v>
       </c>
       <c r="H20" t="n">
-        <v>6.020354162051264</v>
+        <v>5.693653880294429</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003663126777993401</v>
+        <v>0.005999390174918372</v>
       </c>
       <c r="J20" t="n">
-        <v>6.020354162051264</v>
+        <v>5.693653880294429</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0004162003068032335</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.053893983563897</v>
+        <v>5.750526120880868</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003655719353586591</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D21" t="n">
-        <v>6.558336680607959</v>
+        <v>5.575292656962827</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01896846686669996</v>
+        <v>0.01167285327043202</v>
       </c>
       <c r="F21" t="n">
-        <v>6.558336680607959</v>
+        <v>5.575292656962827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00238713232844382</v>
+        <v>0.0003864823333527578</v>
       </c>
       <c r="H21" t="n">
-        <v>6.053893983563897</v>
+        <v>5.750526120880868</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004268639388989613</v>
+        <v>0.007877768054869599</v>
       </c>
       <c r="J21" t="n">
-        <v>6.053893983563897</v>
+        <v>5.750526120880868</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0005233705718221311</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.087433805076528</v>
+        <v>5.807398361467307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005409148721662628</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D22" t="n">
-        <v>6.592138746597519</v>
+        <v>5.623769267460453</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02390645574119599</v>
+        <v>0.01396380699653023</v>
       </c>
       <c r="F22" t="n">
-        <v>6.592138746597519</v>
+        <v>5.623769267460453</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002839357405555583</v>
+        <v>0.0004651737715795951</v>
       </c>
       <c r="H22" t="n">
-        <v>6.087433805076528</v>
+        <v>5.807398361467307</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005120244594406112</v>
+        <v>0.01016799008403651</v>
       </c>
       <c r="J22" t="n">
-        <v>6.087433805076528</v>
+        <v>5.807398361467307</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0006643320861471169</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.120973626589159</v>
+        <v>5.864270602053745</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0007875658478288118</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D23" t="n">
-        <v>6.625940812587079</v>
+        <v>5.67224587795808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02986145450797596</v>
+        <v>0.01655641960898251</v>
       </c>
       <c r="F23" t="n">
-        <v>6.625940812587079</v>
+        <v>5.67224587795808</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003382057719605685</v>
+        <v>0.0005672541898318347</v>
       </c>
       <c r="H23" t="n">
-        <v>6.120973626589159</v>
+        <v>5.864270602053745</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006277839718717687</v>
+        <v>0.01290190332871805</v>
       </c>
       <c r="J23" t="n">
-        <v>6.120973626589159</v>
+        <v>5.864270602053745</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.0008564066304011222</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.154513448101791</v>
+        <v>5.921142842640184</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001129209824894522</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D24" t="n">
-        <v>6.659742878576639</v>
+        <v>5.720722488455706</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03697328675497532</v>
+        <v>0.01944871358480769</v>
       </c>
       <c r="F24" t="n">
-        <v>6.659742878576639</v>
+        <v>5.720722488455706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004020035310123132</v>
+        <v>0.0006979931327323365</v>
       </c>
       <c r="H24" t="n">
-        <v>6.154513448101791</v>
+        <v>5.921142842640184</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007833683671837429</v>
+        <v>0.01609840268496644</v>
       </c>
       <c r="J24" t="n">
-        <v>6.154513448101791</v>
+        <v>5.921142842640184</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.001100328067185544</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.188053269614423</v>
+        <v>5.978015083226623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001595397528983942</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D25" t="n">
-        <v>6.6935449445662</v>
+        <v>5.769199098953332</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04534098495629618</v>
+        <v>0.02267111429411092</v>
       </c>
       <c r="F25" t="n">
-        <v>6.6935449445662</v>
+        <v>5.769199098953332</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004765564731133434</v>
+        <v>0.0008660952216165828</v>
       </c>
       <c r="H25" t="n">
-        <v>6.188053269614423</v>
+        <v>5.978015083226623</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009848113868538262</v>
+        <v>0.01975258241878406</v>
       </c>
       <c r="J25" t="n">
-        <v>6.188053269614423</v>
+        <v>5.978015083226623</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00029463565607358</v>
+        <v>0.001418684230944966</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.221593091127055</v>
+        <v>6.034887323813061</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002236659374506219</v>
+        <v>0.000290772077197743</v>
       </c>
       <c r="D26" t="n">
-        <v>6.72734701055576</v>
+        <v>5.817675709450959</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05507238262388557</v>
+        <v>0.02621336140144969</v>
       </c>
       <c r="F26" t="n">
-        <v>6.72734701055576</v>
+        <v>5.817675709450959</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005645740765473034</v>
+        <v>0.001074198753142994</v>
       </c>
       <c r="H26" t="n">
-        <v>6.221593091127055</v>
+        <v>6.034887323813061</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001261825843515812</v>
+        <v>0.02386234630806911</v>
       </c>
       <c r="J26" t="n">
-        <v>6.221593091127055</v>
+        <v>6.034887323813061</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003043482184021472</v>
+        <v>0.001816467193967703</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.255132912639686</v>
+        <v>6.0917595643995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00310029289456996</v>
+        <v>0.0005676070330181342</v>
       </c>
       <c r="D27" t="n">
-        <v>6.761149076545319</v>
+        <v>5.866152319948585</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06629854013729916</v>
+        <v>0.03009679394505781</v>
       </c>
       <c r="F27" t="n">
-        <v>6.761149076545319</v>
+        <v>5.866152319948585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006728456748214454</v>
+        <v>0.001330027834982378</v>
       </c>
       <c r="H27" t="n">
-        <v>6.255132912639686</v>
+        <v>6.0917595643995</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001614579786272363</v>
+        <v>0.02840924266768155</v>
       </c>
       <c r="J27" t="n">
-        <v>6.255132912639686</v>
+        <v>6.0917595643995</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0003250424015913528</v>
+        <v>0.00231527760171381</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.288672734152318</v>
+        <v>6.148631804985939</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004232241673470013</v>
+        <v>0.001064226560577294</v>
       </c>
       <c r="D28" t="n">
-        <v>6.794951142534879</v>
+        <v>5.914628930446211</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07900065529842608</v>
+        <v>0.03434160486926528</v>
       </c>
       <c r="F28" t="n">
-        <v>6.794951142534879</v>
+        <v>5.914628930446211</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007999509410142099</v>
+        <v>0.001643953869085595</v>
       </c>
       <c r="H28" t="n">
-        <v>6.288672734152318</v>
+        <v>6.148631804985939</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002056167475852822</v>
+        <v>0.03336717960231193</v>
       </c>
       <c r="J28" t="n">
-        <v>6.288672734152318</v>
+        <v>6.148631804985939</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003535903280672107</v>
+        <v>0.002934574599181895</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.322212555664949</v>
+        <v>6.205504045572378</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005694198805481899</v>
+        <v>0.00191790451866647</v>
       </c>
       <c r="D29" t="n">
-        <v>6.828753208524439</v>
+        <v>5.963105540943838</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09328607224988872</v>
+        <v>0.03894112018192764</v>
       </c>
       <c r="F29" t="n">
-        <v>6.828753208524439</v>
+        <v>5.963105540943838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009490126106702947</v>
+        <v>0.00203309587127789</v>
       </c>
       <c r="H29" t="n">
-        <v>6.322212555664949</v>
+        <v>6.205504045572378</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002616014190100465</v>
+        <v>0.03872256955563229</v>
       </c>
       <c r="J29" t="n">
-        <v>6.322212555664949</v>
+        <v>6.205504045572378</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0003928952519596078</v>
+        <v>0.003688006078214176</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.355752377177581</v>
+        <v>6.262376286158817</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007555697069925692</v>
+        <v>0.003324906862775463</v>
       </c>
       <c r="D30" t="n">
-        <v>6.862555274513999</v>
+        <v>6.011582151441464</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1090441873577863</v>
+        <v>0.04391564477966926</v>
       </c>
       <c r="F30" t="n">
-        <v>6.862555274513999</v>
+        <v>6.011582151441464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0112710855185031</v>
+        <v>0.002509147973453936</v>
       </c>
       <c r="H30" t="n">
-        <v>6.355752377177581</v>
+        <v>6.262376286158817</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00331180081326528</v>
+        <v>0.04447747233915818</v>
       </c>
       <c r="J30" t="n">
-        <v>6.355752377177581</v>
+        <v>6.262376286158817</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0004451346773517274</v>
+        <v>0.004619116040337166</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.389292198690213</v>
+        <v>6.319248526745255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.009893472968738262</v>
+        <v>0.005549944107091372</v>
       </c>
       <c r="D31" t="n">
-        <v>6.89635734050356</v>
+        <v>6.06005876193909</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1262956945301615</v>
+        <v>0.04927259184002107</v>
       </c>
       <c r="F31" t="n">
-        <v>6.89635734050356</v>
+        <v>6.06005876193909</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0133785779329906</v>
+        <v>0.00307764406931815</v>
       </c>
       <c r="H31" t="n">
-        <v>6.389292198690213</v>
+        <v>6.319248526745255</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004186518985719762</v>
+        <v>0.05060472123312614</v>
       </c>
       <c r="J31" t="n">
-        <v>6.389292198690213</v>
+        <v>6.319248526745255</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0005137221984755649</v>
+        <v>0.005731121457127807</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.422832020202844</v>
+        <v>6.376120767331694</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01279038700543309</v>
+        <v>0.008928981370332887</v>
       </c>
       <c r="D32" t="n">
-        <v>6.93015940649312</v>
+        <v>6.108535372436716</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1449357410642837</v>
+        <v>0.05505858535726479</v>
       </c>
       <c r="F32" t="n">
-        <v>6.93015940649312</v>
+        <v>6.108535372436716</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01586466888227711</v>
+        <v>0.003753205766056664</v>
       </c>
       <c r="H32" t="n">
-        <v>6.422832020202844</v>
+        <v>6.376120767331694</v>
       </c>
       <c r="I32" t="n">
-        <v>0.005262617519599504</v>
+        <v>0.05719094069753392</v>
       </c>
       <c r="J32" t="n">
-        <v>6.422832020202844</v>
+        <v>6.376120767331694</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0006027174433395112</v>
+        <v>0.007062332129868069</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.456371841715477</v>
+        <v>6.432993007918133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01641604015832539</v>
+        <v>0.01386193788688383</v>
       </c>
       <c r="D33" t="n">
-        <v>6.96396147248268</v>
+        <v>6.157011982934343</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1647665697258514</v>
+        <v>0.06126139563560132</v>
       </c>
       <c r="F33" t="n">
-        <v>6.96396147248268</v>
+        <v>6.157011982934343</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01881244313920638</v>
+        <v>0.004545655760249145</v>
       </c>
       <c r="H33" t="n">
-        <v>6.456371841715477</v>
+        <v>6.432993007918133</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006593078625649048</v>
+        <v>0.06427819559020646</v>
       </c>
       <c r="J33" t="n">
-        <v>6.456371841715477</v>
+        <v>6.432993007918133</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0007178784966116192</v>
+        <v>0.00863274597190654</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.489911663228108</v>
+        <v>6.489865248504572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02080001231408215</v>
+        <v>0.02079321553979929</v>
       </c>
       <c r="D34" t="n">
-        <v>6.99776353847224</v>
+        <v>6.205488593431969</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1857275549744878</v>
+        <v>0.06797330885711404</v>
       </c>
       <c r="F34" t="n">
-        <v>6.99776353847224</v>
+        <v>6.205488593431969</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02230740144702114</v>
+        <v>0.005482068145030426</v>
       </c>
       <c r="H34" t="n">
-        <v>6.489911663228108</v>
+        <v>6.489865248504572</v>
       </c>
       <c r="I34" t="n">
-        <v>0.008237003083865893</v>
+        <v>0.07199176314428425</v>
       </c>
       <c r="J34" t="n">
-        <v>6.489911663228108</v>
+        <v>6.489865248504572</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0008679945909535456</v>
+        <v>0.01050343743509741</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.52345148474074</v>
+        <v>6.546737489091011</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0260293440194233</v>
+        <v>0.0301805816581554</v>
       </c>
       <c r="D35" t="n">
-        <v>7.031565604461799</v>
+        <v>6.253965203929595</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2075386851443644</v>
+        <v>0.07520529876003695</v>
       </c>
       <c r="F35" t="n">
-        <v>7.031565604461799</v>
+        <v>6.253965203929595</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02642972247872441</v>
+        <v>0.006579134095465271</v>
       </c>
       <c r="H35" t="n">
-        <v>6.52345148474074</v>
+        <v>6.546737489091011</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01026491605853713</v>
+        <v>0.0804407199376444</v>
       </c>
       <c r="J35" t="n">
-        <v>6.52345148474074</v>
+        <v>6.546737489091011</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001056720303592304</v>
+        <v>0.01270760935038149</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.556991306253371</v>
+        <v>6.60360972967745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03219083389641376</v>
+        <v>0.04245603395269978</v>
       </c>
       <c r="D36" t="n">
-        <v>7.065367670451359</v>
+        <v>6.302441814427222</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2300549905161899</v>
+        <v>0.0830029339575559</v>
       </c>
       <c r="F36" t="n">
-        <v>7.065367670451359</v>
+        <v>6.302441814427222</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03129207610857735</v>
+        <v>0.007855946331710408</v>
       </c>
       <c r="H36" t="n">
-        <v>6.556991306253371</v>
+        <v>6.60360972967745</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0127488002936585</v>
+        <v>0.08978612101339742</v>
       </c>
       <c r="J36" t="n">
-        <v>6.556991306253371</v>
+        <v>6.60360972967745</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00129124472042721</v>
+        <v>0.01527103842099765</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.590531127766003</v>
+        <v>6.660481970263889</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03936556465185739</v>
+        <v>0.05798474100155809</v>
       </c>
       <c r="D37" t="n">
-        <v>7.09916973644092</v>
+        <v>6.350918424924847</v>
       </c>
       <c r="E37" t="n">
-        <v>0.253039905874883</v>
+        <v>0.09147329820245555</v>
       </c>
       <c r="F37" t="n">
-        <v>7.09916973644092</v>
+        <v>6.350918424924847</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03701431171200251</v>
+        <v>0.009329240536981427</v>
       </c>
       <c r="H37" t="n">
-        <v>6.590531127766003</v>
+        <v>6.660481970263889</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01577705585828791</v>
+        <v>0.1001371901013371</v>
       </c>
       <c r="J37" t="n">
-        <v>6.590531127766003</v>
+        <v>6.660481970263889</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00157940390281948</v>
+        <v>0.01825069241597511</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.624070949278635</v>
+        <v>6.717354210850328</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04762635134092214</v>
+        <v>0.07702877506593032</v>
       </c>
       <c r="D38" t="n">
-        <v>7.13297180243048</v>
+        <v>6.399395035422474</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2762525912420786</v>
+        <v>0.1006330802558221</v>
       </c>
       <c r="F38" t="n">
-        <v>7.13297180243048</v>
+        <v>6.399395035422474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04369386531240382</v>
+        <v>0.01101238786623361</v>
       </c>
       <c r="H38" t="n">
-        <v>6.624070949278635</v>
+        <v>6.717354210850328</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01947838759696576</v>
+        <v>0.1116209885275133</v>
       </c>
       <c r="J38" t="n">
-        <v>6.624070949278635</v>
+        <v>6.717354210850328</v>
       </c>
       <c r="K38" t="n">
-        <v>0.00193024378183283</v>
+        <v>0.02167319884649987</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.657610770791266</v>
+        <v>6.774226451436766</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05708056096385741</v>
+        <v>0.09972052706359423</v>
       </c>
       <c r="D39" t="n">
-        <v>7.16677386842004</v>
+        <v>6.447871645920101</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2994753616417502</v>
+        <v>0.1105428259515183</v>
       </c>
       <c r="F39" t="n">
-        <v>7.16677386842004</v>
+        <v>6.447871645920101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05144316170922168</v>
+        <v>0.01293796076543952</v>
       </c>
       <c r="H39" t="n">
-        <v>6.657610770791266</v>
+        <v>6.774226451436766</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02396929544978437</v>
+        <v>0.1243138371370139</v>
       </c>
       <c r="J39" t="n">
-        <v>6.657610770791266</v>
+        <v>6.774226451436766</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002368311818178888</v>
+        <v>0.02559878287310671</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.691150592303898</v>
+        <v>6.831098692023205</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06783129878962188</v>
+        <v>0.1260469264093968</v>
       </c>
       <c r="D40" t="n">
-        <v>7.2005759344096</v>
+        <v>6.496348256417727</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3224819523801477</v>
+        <v>0.1212428583259689</v>
       </c>
       <c r="F40" t="n">
-        <v>7.2005759344096</v>
+        <v>6.496348256417727</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06037000751606821</v>
+        <v>0.01510987267836673</v>
       </c>
       <c r="H40" t="n">
-        <v>6.691150592303898</v>
+        <v>6.831098692023205</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02943098599339508</v>
+        <v>0.1382384744025569</v>
       </c>
       <c r="J40" t="n">
-        <v>6.691150592303898</v>
+        <v>6.831098692023205</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002917287789778641</v>
+        <v>0.03005873462396237</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.72469041381653</v>
+        <v>6.887970932609644</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07981907208149855</v>
+        <v>0.1558811998367346</v>
       </c>
       <c r="D41" t="n">
-        <v>7.234378000399159</v>
+        <v>6.544824866915353</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3450363830915214</v>
+        <v>0.1327294978188204</v>
       </c>
       <c r="F41" t="n">
-        <v>7.234378000399159</v>
+        <v>6.544824866915353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07056864616492085</v>
+        <v>0.01754883910247514</v>
       </c>
       <c r="H41" t="n">
-        <v>6.72469041381653</v>
+        <v>6.887970932609644</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03602006570438288</v>
+        <v>0.1533254259780908</v>
       </c>
       <c r="J41" t="n">
-        <v>6.72469041381653</v>
+        <v>6.887970932609644</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003574303914341159</v>
+        <v>0.03507508963129211</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.758230235329162</v>
+        <v>6.944843173196082</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09305923957612586</v>
+        <v>0.1888461647207187</v>
       </c>
       <c r="D42" t="n">
-        <v>7.268180066388719</v>
+        <v>6.59330147741298</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3668909737267307</v>
+        <v>0.1450325593460494</v>
       </c>
       <c r="F42" t="n">
-        <v>7.268180066388719</v>
+        <v>6.59330147741298</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08209519348229476</v>
+        <v>0.02026580908873107</v>
       </c>
       <c r="H42" t="n">
-        <v>6.758230235329162</v>
+        <v>6.944843173196082</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04392948354804283</v>
+        <v>0.1694592839529249</v>
       </c>
       <c r="J42" t="n">
-        <v>6.758230235329162</v>
+        <v>6.944843173196082</v>
       </c>
       <c r="K42" t="n">
-        <v>0.004353342920119872</v>
+        <v>0.04065836890210591</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.791770056841793</v>
+        <v>7.001715413782521</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1075507229785955</v>
+        <v>0.2244438480015188</v>
       </c>
       <c r="D43" t="n">
-        <v>7.30198213237828</v>
+        <v>6.641778087910605</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3878297001891136</v>
+        <v>0.1580721166974755</v>
       </c>
       <c r="F43" t="n">
-        <v>7.30198213237828</v>
+        <v>6.641778087910605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09494483738162365</v>
+        <v>0.02327228723594806</v>
       </c>
       <c r="H43" t="n">
-        <v>6.791770056841793</v>
+        <v>7.001715413782521</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05335925659771794</v>
+        <v>0.1864285700575991</v>
       </c>
       <c r="J43" t="n">
-        <v>6.791770056841793</v>
+        <v>7.001715413782521</v>
       </c>
       <c r="K43" t="n">
-        <v>0.005296355535679504</v>
+        <v>0.04684162100800743</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.825309878354425</v>
+        <v>7.05858765436896</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1232755476323412</v>
+        <v>0.2620038968191827</v>
       </c>
       <c r="D44" t="n">
-        <v>7.33578419836784</v>
+        <v>6.690254698408232</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4075664833258436</v>
+        <v>0.1717876133102969</v>
       </c>
       <c r="F44" t="n">
-        <v>7.33578419836784</v>
+        <v>6.690254698408232</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1092273218144852</v>
+        <v>0.02657502972251809</v>
       </c>
       <c r="H44" t="n">
-        <v>6.825309878354425</v>
+        <v>7.05858765436896</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06448448672883959</v>
+        <v>0.2040113626619313</v>
       </c>
       <c r="J44" t="n">
-        <v>6.825309878354425</v>
+        <v>7.05858765436896</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006451227897531196</v>
+        <v>0.0535815887873004</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.858849699867056</v>
+        <v>7.115459894955398</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1401985216210399</v>
+        <v>0.3006809516524938</v>
       </c>
       <c r="D45" t="n">
-        <v>7.3695862643574</v>
+        <v>6.738731308905859</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4259118645980351</v>
+        <v>0.1860698298537763</v>
       </c>
       <c r="F45" t="n">
-        <v>7.3695862643574</v>
+        <v>6.738731308905859</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1247532630726776</v>
+        <v>0.03015168144035548</v>
       </c>
       <c r="H45" t="n">
-        <v>6.858849699867056</v>
+        <v>7.115459894955398</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07745416781717215</v>
+        <v>0.2218868252498014</v>
       </c>
       <c r="J45" t="n">
-        <v>6.858849699867056</v>
+        <v>7.115459894955398</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00782546998082446</v>
+        <v>0.06082619040664373</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.892389521379688</v>
+        <v>7.172332135541838</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1583522044645562</v>
+        <v>0.3394679604664722</v>
       </c>
       <c r="D46" t="n">
-        <v>7.40338833034696</v>
+        <v>6.787207919403484</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4425749355702536</v>
+        <v>0.2007488134674213</v>
       </c>
       <c r="F46" t="n">
-        <v>7.40338833034696</v>
+        <v>6.787207919403484</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1415274482844226</v>
+        <v>0.03401543388285703</v>
       </c>
       <c r="H46" t="n">
-        <v>6.892389521379688</v>
+        <v>7.172332135541838</v>
       </c>
       <c r="I46" t="n">
-        <v>0.092391179880664</v>
+        <v>0.2397977698925956</v>
       </c>
       <c r="J46" t="n">
-        <v>6.892389521379688</v>
+        <v>7.172332135541838</v>
       </c>
       <c r="K46" t="n">
-        <v>0.009434629073050045</v>
+        <v>0.06852912784414958</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.92592934289232</v>
+        <v>7.229204376128276</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1776040226833065</v>
+        <v>0.3772336684981686</v>
       </c>
       <c r="D47" t="n">
-        <v>7.43719039633652</v>
+        <v>6.835684529901111</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4573455576488256</v>
+        <v>0.2157067783503125</v>
       </c>
       <c r="F47" t="n">
-        <v>7.43719039633652</v>
+        <v>6.835684529901111</v>
       </c>
       <c r="G47" t="n">
-        <v>0.159381841424968</v>
+        <v>0.03814001860340374</v>
       </c>
       <c r="H47" t="n">
-        <v>6.92592934289232</v>
+        <v>7.229204376128276</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1094317291612388</v>
+        <v>0.2573741757828181</v>
       </c>
       <c r="J47" t="n">
-        <v>6.92592934289232</v>
+        <v>7.229204376128276</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0113202887183872</v>
+        <v>0.07657319929582423</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.959469164404951</v>
+        <v>7.286076616714715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1978185361858753</v>
+        <v>0.4127877433515419</v>
       </c>
       <c r="D48" t="n">
-        <v>7.47099246232608</v>
+        <v>6.884161140398737</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4700220570780451</v>
+        <v>0.230728909555892</v>
       </c>
       <c r="F48" t="n">
-        <v>7.47099246232608</v>
+        <v>6.884161140398737</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1781048973532619</v>
+        <v>0.04252495275592035</v>
       </c>
       <c r="H48" t="n">
-        <v>6.959469164404951</v>
+        <v>7.286076616714715</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1284980931107804</v>
+        <v>0.2743428572017814</v>
       </c>
       <c r="J48" t="n">
-        <v>6.959469164404951</v>
+        <v>7.286076616714715</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01350255426535796</v>
+        <v>0.08491387380620487</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.993008985917584</v>
+        <v>7.342948857301154</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2188825667836594</v>
+        <v>0.4449686377146486</v>
       </c>
       <c r="D49" t="n">
-        <v>7.504794528315641</v>
+        <v>6.932637750896363</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4804720991616246</v>
+        <v>0.2455992845879807</v>
       </c>
       <c r="F49" t="n">
-        <v>7.504794528315641</v>
+        <v>6.932637750896363</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1974904768630781</v>
+        <v>0.04714658798026043</v>
       </c>
       <c r="H49" t="n">
-        <v>6.993008985917584</v>
+        <v>7.342948857301154</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1495682003861991</v>
+        <v>0.2904289928450647</v>
       </c>
       <c r="J49" t="n">
-        <v>6.993008985917584</v>
+        <v>7.342948857301154</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0160533487501473</v>
+        <v>0.09337624855430519</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.026548807430215</v>
+        <v>7.399821097887592</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2406634901377235</v>
+        <v>0.4727411361515839</v>
       </c>
       <c r="D50" t="n">
-        <v>7.5385965943052</v>
+        <v>6.98111436139399</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4885670521870225</v>
+        <v>0.2601373193127873</v>
       </c>
       <c r="F50" t="n">
-        <v>7.5385965943052</v>
+        <v>6.98111436139399</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2172559235424687</v>
+        <v>0.05202347937800359</v>
       </c>
       <c r="H50" t="n">
-        <v>7.026548807430215</v>
+        <v>7.399821097887592</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1724800901834613</v>
+        <v>0.3053899037682389</v>
       </c>
       <c r="J50" t="n">
-        <v>7.026548807430215</v>
+        <v>7.399821097887592</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01897944445928715</v>
+        <v>0.1018962042839634</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.060088628942847</v>
+        <v>7.456693338474031</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2630090471590827</v>
+        <v>0.4952856948134195</v>
       </c>
       <c r="D51" t="n">
-        <v>7.57239866029476</v>
+        <v>7.029590971891616</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4942084606959852</v>
+        <v>0.2741668874019292</v>
       </c>
       <c r="F51" t="n">
-        <v>7.57239866029476</v>
+        <v>7.029590971891616</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2371353673621883</v>
+        <v>0.05714236330429038</v>
       </c>
       <c r="H51" t="n">
-        <v>7.060088628942847</v>
+        <v>7.456693338474031</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1969913118452347</v>
+        <v>0.3190184262464311</v>
       </c>
       <c r="J51" t="n">
-        <v>7.060088628942847</v>
+        <v>7.456693338474031</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02234652920440697</v>
+        <v>0.1103359068793184</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.093628450455478</v>
+        <v>7.513565579060471</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2857486515665635</v>
+        <v>0.5120621026319447</v>
       </c>
       <c r="D52" t="n">
-        <v>7.60620072628432</v>
+        <v>7.078067582389242</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4975254406852809</v>
+        <v>0.2874576368952153</v>
       </c>
       <c r="F52" t="n">
-        <v>7.60620072628432</v>
+        <v>7.078067582389242</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2567726229166413</v>
+        <v>0.06250530024588753</v>
       </c>
       <c r="H52" t="n">
-        <v>7.093628450455478</v>
+        <v>7.513565579060471</v>
       </c>
       <c r="I52" t="n">
-        <v>0.222796700864735</v>
+        <v>0.3311334437275593</v>
       </c>
       <c r="J52" t="n">
-        <v>7.093628450455478</v>
+        <v>7.513565579060471</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02618625250038649</v>
+        <v>0.1185970491407431</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.12716827196811</v>
+        <v>7.570437819646909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3086888245867904</v>
+        <v>0.5228358049592673</v>
       </c>
       <c r="D53" t="n">
-        <v>7.64000279227388</v>
+        <v>7.126544192886868</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4985742762708426</v>
+        <v>0.299874165763522</v>
       </c>
       <c r="F53" t="n">
-        <v>7.64000279227388</v>
+        <v>7.126544192886868</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2759487931219792</v>
+        <v>0.06812173997150499</v>
       </c>
       <c r="H53" t="n">
-        <v>7.12716827196811</v>
+        <v>7.570437819646909</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2494707199395035</v>
+        <v>0.3416062522638897</v>
       </c>
       <c r="J53" t="n">
-        <v>7.12716827196811</v>
+        <v>7.570437819646909</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0305607534756608</v>
+        <v>0.1265723863040378</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.160708093480741</v>
+        <v>7.627310060233348</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3315794773986284</v>
+        <v>0.5276647839033169</v>
       </c>
       <c r="D54" t="n">
-        <v>7.67380485826344</v>
+        <v>7.175020803384495</v>
       </c>
       <c r="E54" t="n">
-        <v>0.497522048017737</v>
+        <v>0.3112985883729725</v>
       </c>
       <c r="F54" t="n">
-        <v>7.67380485826344</v>
+        <v>7.175020803384495</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2942864788825068</v>
+        <v>0.07400639995435782</v>
       </c>
       <c r="H54" t="n">
-        <v>7.160708093480741</v>
+        <v>7.627310060233348</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2766122003210781</v>
+        <v>0.3503406425615065</v>
       </c>
       <c r="J54" t="n">
-        <v>7.160708093480741</v>
+        <v>7.627310060233348</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03551816982757265</v>
+        <v>0.1341412085555398</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.194247914993373</v>
+        <v>7.684182300819787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3541972598006073</v>
+        <v>0.5268552453840899</v>
       </c>
       <c r="D55" t="n">
-        <v>7.707606924253</v>
+        <v>7.223497413882122</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4945781699839505</v>
+        <v>0.3215835330274847</v>
       </c>
       <c r="F55" t="n">
-        <v>7.707606924253</v>
+        <v>7.223497413882122</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3116136140529877</v>
+        <v>0.08019146791360039</v>
       </c>
       <c r="H55" t="n">
-        <v>7.194247914993373</v>
+        <v>7.684182300819787</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3037054409419417</v>
+        <v>0.3573491879836149</v>
       </c>
       <c r="J55" t="n">
-        <v>7.194247914993373</v>
+        <v>7.684182300819787</v>
       </c>
       <c r="K55" t="n">
-        <v>0.04106869830822615</v>
+        <v>0.1413039778282989</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.227787736506005</v>
+        <v>7.741054541406225</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3763104077672862</v>
+        <v>0.5209021235888407</v>
       </c>
       <c r="D56" t="n">
-        <v>7.74140899024256</v>
+        <v>7.271974024379748</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4900162816915202</v>
+        <v>0.3306678307776514</v>
       </c>
       <c r="F56" t="n">
-        <v>7.74140899024256</v>
+        <v>7.271974024379748</v>
       </c>
       <c r="G56" t="n">
-        <v>0.327631977761831</v>
+        <v>0.08666396160346085</v>
       </c>
       <c r="H56" t="n">
-        <v>7.227787736506005</v>
+        <v>7.741054541406225</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3302881900958683</v>
+        <v>0.3626272163741981</v>
       </c>
       <c r="J56" t="n">
-        <v>7.227787736506005</v>
+        <v>7.741054541406225</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04726553490058746</v>
+        <v>0.148009714974536</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.261327558018636</v>
+        <v>7.797926781992665</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3976838301095406</v>
+        <v>0.5104327758764889</v>
       </c>
       <c r="D57" t="n">
-        <v>7.77521105623212</v>
+        <v>7.320450634877374</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4841203992989359</v>
+        <v>0.3385141244448152</v>
       </c>
       <c r="F57" t="n">
-        <v>7.77521105623212</v>
+        <v>7.320450634877374</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3422578729467204</v>
+        <v>0.09342830267548091</v>
       </c>
       <c r="H57" t="n">
-        <v>7.261327558018636</v>
+        <v>7.797926781992665</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3559105933008988</v>
+        <v>0.3663003279614513</v>
       </c>
       <c r="J57" t="n">
-        <v>7.261327558018636</v>
+        <v>7.797926781992665</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05414401702503396</v>
+        <v>0.1542821704177867</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.294867379531269</v>
+        <v>7.854799022579103</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4180848941218575</v>
+        <v>0.4961680826992702</v>
       </c>
       <c r="D58" t="n">
-        <v>7.80901312222168</v>
+        <v>7.368927245375</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4771473460786135</v>
+        <v>0.345119431272422</v>
       </c>
       <c r="F58" t="n">
-        <v>7.80901312222168</v>
+        <v>7.368927245375</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3552557359835926</v>
+        <v>0.1004943846420879</v>
       </c>
       <c r="H58" t="n">
-        <v>7.294867379531269</v>
+        <v>7.854799022579103</v>
       </c>
       <c r="I58" t="n">
-        <v>0.380121665458299</v>
+        <v>0.3684558671484681</v>
       </c>
       <c r="J58" t="n">
-        <v>7.294867379531269</v>
+        <v>7.854799022579103</v>
       </c>
       <c r="K58" t="n">
-        <v>0.06171308756292172</v>
+        <v>0.1602055405084365</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.3284072010439</v>
+        <v>7.911671263165542</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4372221976765392</v>
+        <v>0.4789057503284732</v>
       </c>
       <c r="D59" t="n">
-        <v>7.84281518821124</v>
+        <v>7.417403855872626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4693861585449031</v>
+        <v>0.3505161838128871</v>
       </c>
       <c r="F59" t="n">
-        <v>7.84281518821124</v>
+        <v>7.417403855872626</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3667377751610557</v>
+        <v>0.1078582091540182</v>
       </c>
       <c r="H59" t="n">
-        <v>7.3284072010439</v>
+        <v>7.911671263165542</v>
       </c>
       <c r="I59" t="n">
-        <v>0.402581459122978</v>
+        <v>0.369297064480824</v>
       </c>
       <c r="J59" t="n">
-        <v>7.3284072010439</v>
+        <v>7.911671263165542</v>
       </c>
       <c r="K59" t="n">
-        <v>0.06998923282759918</v>
+        <v>0.1658908143357583</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.361947022556532</v>
+        <v>7.968543503751981</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4548299815785376</v>
+        <v>0.4595194133684739</v>
       </c>
       <c r="D60" t="n">
-        <v>7.8766172542008</v>
+        <v>7.465880466370253</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4610773766711476</v>
+        <v>0.3547663674592069</v>
       </c>
       <c r="F60" t="n">
-        <v>7.8766172542008</v>
+        <v>7.465880466370253</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3764445156098944</v>
+        <v>0.1154841994220447</v>
       </c>
       <c r="H60" t="n">
-        <v>7.361947022556532</v>
+        <v>7.968543503751981</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4229753421439869</v>
+        <v>0.3690088507598526</v>
       </c>
       <c r="J60" t="n">
-        <v>7.361947022556532</v>
+        <v>7.968543503751981</v>
       </c>
       <c r="K60" t="n">
-        <v>0.07899086803153879</v>
+        <v>0.1714664717934901</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.395486844069163</v>
+        <v>8.025415744338419</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4708112978347668</v>
+        <v>0.4389576444453313</v>
       </c>
       <c r="D61" t="n">
-        <v>7.910419320190361</v>
+        <v>7.51435707686788</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4524658825966232</v>
+        <v>0.357936667998512</v>
       </c>
       <c r="F61" t="n">
-        <v>7.910419320190361</v>
+        <v>7.51435707686788</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3846403405066858</v>
+        <v>0.1233566221937881</v>
       </c>
       <c r="H61" t="n">
-        <v>7.395486844069163</v>
+        <v>8.025415744338419</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4411202307234626</v>
+        <v>0.3678215859292889</v>
       </c>
       <c r="J61" t="n">
-        <v>7.395486844069163</v>
+        <v>8.025415744338419</v>
       </c>
       <c r="K61" t="n">
-        <v>0.08869482464011848</v>
+        <v>0.1770582398516161</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.429026665581794</v>
+        <v>8.082287984924857</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4850126617984603</v>
+        <v>0.418250116229413</v>
       </c>
       <c r="D62" t="n">
-        <v>7.944221386179921</v>
+        <v>7.562833687365505</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4437413771488964</v>
+        <v>0.3601397849119849</v>
       </c>
       <c r="F62" t="n">
-        <v>7.944221386179921</v>
+        <v>7.562833687365505</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3912491851188644</v>
+        <v>0.1314250151955065</v>
       </c>
       <c r="H62" t="n">
-        <v>7.429026665581794</v>
+        <v>8.082287984924857</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4568850707275143</v>
+        <v>0.3659544672323684</v>
       </c>
       <c r="J62" t="n">
-        <v>7.429026665581794</v>
+        <v>8.082287984924857</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0991178509039929</v>
+        <v>0.182779958872735</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.462566487094427</v>
+        <v>8.139160225511297</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4973118716813018</v>
+        <v>0.3984243264613835</v>
       </c>
       <c r="D63" t="n">
-        <v>7.978023452169481</v>
+        <v>7.611310297863131</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4351034329174306</v>
+        <v>0.3615285764064847</v>
       </c>
       <c r="F63" t="n">
-        <v>7.978023452169481</v>
+        <v>7.611310297863131</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3964087155808934</v>
+        <v>0.1396541322632786</v>
       </c>
       <c r="H63" t="n">
-        <v>7.462566487094427</v>
+        <v>8.139160225511297</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4701199985701741</v>
+        <v>0.363606046604328</v>
       </c>
       <c r="J63" t="n">
-        <v>7.462566487094427</v>
+        <v>8.139160225511297</v>
       </c>
       <c r="K63" t="n">
-        <v>0.110201974481821</v>
+        <v>0.1886942588076501</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.496106308607058</v>
+        <v>8.196032466097735</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5076203669769959</v>
+        <v>0.3804316439863015</v>
       </c>
       <c r="D64" t="n">
-        <v>8.011825518159041</v>
+        <v>7.659786908360758</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4267288346275732</v>
+        <v>0.3621916935732092</v>
       </c>
       <c r="F64" t="n">
-        <v>8.011825518159041</v>
+        <v>7.659786908360758</v>
       </c>
       <c r="G64" t="n">
-        <v>0.40021528816362</v>
+        <v>0.1479943956345667</v>
       </c>
       <c r="H64" t="n">
-        <v>7.496106308607058</v>
+        <v>8.196032466097735</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4809424136345093</v>
+        <v>0.3609452261508273</v>
       </c>
       <c r="J64" t="n">
-        <v>7.496106308607058</v>
+        <v>8.196032466097735</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1219534664318499</v>
+        <v>0.1948383746622034</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.529646130119691</v>
+        <v>8.252904706684175</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5158841294677571</v>
+        <v>0.3650537392793016</v>
       </c>
       <c r="D65" t="n">
-        <v>8.045627584148601</v>
+        <v>7.708263518858384</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4187547667184589</v>
+        <v>0.3622626114553719</v>
       </c>
       <c r="F65" t="n">
-        <v>8.045627584148601</v>
+        <v>7.708263518858384</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4028362742233408</v>
+        <v>0.1564004672397798</v>
       </c>
       <c r="H65" t="n">
-        <v>7.529646130119691</v>
+        <v>8.252904706684175</v>
       </c>
       <c r="I65" t="n">
-        <v>0.489275647618552</v>
+        <v>0.3580868189598081</v>
       </c>
       <c r="J65" t="n">
-        <v>7.529646130119691</v>
+        <v>8.252904706684175</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1342792590630101</v>
+        <v>0.2011610202757933</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.563185951632322</v>
+        <v>8.309776947270613</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5218995626015971</v>
+        <v>0.3527982112731523</v>
       </c>
       <c r="D66" t="n">
-        <v>8.07942965013816</v>
+        <v>7.756740129356011</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4113661040767502</v>
+        <v>0.3618513129895072</v>
       </c>
       <c r="F66" t="n">
-        <v>8.07942965013816</v>
+        <v>7.756740129356011</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4043272465417118</v>
+        <v>0.1648307022603145</v>
       </c>
       <c r="H66" t="n">
-        <v>7.563185951632322</v>
+        <v>8.309776947270613</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4952667117370655</v>
+        <v>0.3551573740265306</v>
       </c>
       <c r="J66" t="n">
-        <v>7.563185951632322</v>
+        <v>8.309776947270613</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1471310035086586</v>
+        <v>0.2076168186275549</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.596725773144954</v>
+        <v>8.366649187857051</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5258161396383475</v>
+        <v>0.3438120646671726</v>
       </c>
       <c r="D67" t="n">
-        <v>8.113231716127721</v>
+        <v>7.805216739853637</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4046665470577399</v>
+        <v>0.361043463446883</v>
       </c>
       <c r="F67" t="n">
-        <v>8.113231716127721</v>
+        <v>7.805216739853637</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4048505222480704</v>
+        <v>0.1732154891865895</v>
       </c>
       <c r="H67" t="n">
-        <v>7.596725773144954</v>
+        <v>8.366649187857051</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4990041599980513</v>
+        <v>0.3522061892985497</v>
       </c>
       <c r="J67" t="n">
-        <v>7.596725773144954</v>
+        <v>8.366649187857051</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1604634389068388</v>
+        <v>0.2141214112820254</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.630265594657585</v>
+        <v>8.423521428443491</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5277369491333839</v>
+        <v>0.3378334851534084</v>
       </c>
       <c r="D68" t="n">
-        <v>8.14703378211728</v>
+        <v>7.853693350351262</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3988187118988667</v>
+        <v>0.3599359147396985</v>
       </c>
       <c r="F68" t="n">
-        <v>8.14703378211728</v>
+        <v>7.853693350351262</v>
       </c>
       <c r="G68" t="n">
-        <v>0.404500483744563</v>
+        <v>0.1814827213083217</v>
       </c>
       <c r="H68" t="n">
-        <v>7.630265594657585</v>
+        <v>8.423521428443491</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5005883483153348</v>
+        <v>0.3492183938650316</v>
       </c>
       <c r="J68" t="n">
-        <v>7.630265594657585</v>
+        <v>8.423521428443491</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1741781078782019</v>
+        <v>0.2205966368869949</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.663805416170216</v>
+        <v>8.48039366902993</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5277350112367004</v>
+        <v>0.3341975382586013</v>
       </c>
       <c r="D69" t="n">
-        <v>8.18083584810684</v>
+        <v>7.902169960848889</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3939238425398792</v>
+        <v>0.3585611112598678</v>
       </c>
       <c r="F69" t="n">
-        <v>8.18083584810684</v>
+        <v>7.902169960848889</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4033735921338149</v>
+        <v>0.1896236206279448</v>
       </c>
       <c r="H69" t="n">
-        <v>7.663805416170216</v>
+        <v>8.48039366902993</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5001668306087077</v>
+        <v>0.3461669711371037</v>
       </c>
       <c r="J69" t="n">
-        <v>7.663805416170216</v>
+        <v>8.48039366902993</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1881734204071591</v>
+        <v>0.2269652443087987</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.697345237682848</v>
+        <v>8.537265909616369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5259036982132076</v>
+        <v>0.3319036878215249</v>
       </c>
       <c r="D70" t="n">
-        <v>8.2146379140964</v>
+        <v>7.950646571346516</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3900580819371942</v>
+        <v>0.3569990503864029</v>
       </c>
       <c r="F70" t="n">
-        <v>8.2146379140964</v>
+        <v>7.950646571346516</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4015401103073109</v>
+        <v>0.1975605134083195</v>
       </c>
       <c r="H70" t="n">
-        <v>7.697345237682848</v>
+        <v>8.537265909616369</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4978821710444964</v>
+        <v>0.3429846998834886</v>
       </c>
       <c r="J70" t="n">
-        <v>7.697345237682848</v>
+        <v>8.537265909616369</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2023091169323583</v>
+        <v>0.2331650071166137</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.730885059195479</v>
+        <v>8.594138150202808</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5223529805014069</v>
+        <v>0.3297427430081502</v>
       </c>
       <c r="D71" t="n">
-        <v>8.24843998008596</v>
+        <v>7.999123181844142</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3873805150347439</v>
+        <v>0.3552448263342401</v>
       </c>
       <c r="F71" t="n">
-        <v>8.24843998008596</v>
+        <v>7.999123181844142</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3990827196864999</v>
+        <v>0.2052649536440576</v>
       </c>
       <c r="H71" t="n">
-        <v>7.730885059195479</v>
+        <v>8.594138150202808</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4939645825154199</v>
+        <v>0.3395231265647738</v>
       </c>
       <c r="J71" t="n">
-        <v>7.730885059195479</v>
+        <v>8.594138150202808</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2165266271207248</v>
+        <v>0.2391528355234421</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.764424880708112</v>
+        <v>8.651010390789246</v>
       </c>
       <c r="C72" t="n">
-        <v>0.517183575342301</v>
+        <v>0.3264685735464511</v>
       </c>
       <c r="D72" t="n">
-        <v>8.28224204607552</v>
+        <v>8.047599792341767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3858419286098723</v>
+        <v>0.3533361189102207</v>
       </c>
       <c r="F72" t="n">
-        <v>8.28224204607552</v>
+        <v>8.047599792341767</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3960876704430749</v>
+        <v>0.2126783344716157</v>
       </c>
       <c r="H72" t="n">
-        <v>7.764424880708112</v>
+        <v>8.651010390789246</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4885214292460658</v>
+        <v>0.3356633856810294</v>
       </c>
       <c r="J72" t="n">
-        <v>7.764424880708112</v>
+        <v>8.651010390789246</v>
       </c>
       <c r="K72" t="n">
-        <v>0.230683740102173</v>
+        <v>0.24488193999359</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.797964702220743</v>
+        <v>8.707882631375686</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5104240275046005</v>
+        <v>0.3209875739632819</v>
       </c>
       <c r="D73" t="n">
-        <v>8.316044112065081</v>
+        <v>8.096076402839394</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3855201152087366</v>
+        <v>0.3512457044269277</v>
       </c>
       <c r="F73" t="n">
-        <v>8.316044112065081</v>
+        <v>8.096076402839394</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3925664280380333</v>
+        <v>0.2197964634449042</v>
       </c>
       <c r="H73" t="n">
-        <v>7.797964702220743</v>
+        <v>8.707882631375686</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4818202286854263</v>
+        <v>0.3312638586237288</v>
       </c>
       <c r="J73" t="n">
-        <v>7.797964702220743</v>
+        <v>8.707882631375686</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2446267864643773</v>
+        <v>0.2502733258506788</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.831504523733376</v>
+        <v>8.764754871962124</v>
       </c>
       <c r="C74" t="n">
-        <v>0.502377538201921</v>
+        <v>0.312530022458697</v>
       </c>
       <c r="D74" t="n">
-        <v>8.349846178054641</v>
+        <v>8.144553013337021</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3863759462598638</v>
+        <v>0.3489878379418349</v>
       </c>
       <c r="F74" t="n">
-        <v>8.349846178054641</v>
+        <v>8.144553013337021</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3886123098259137</v>
+        <v>0.2266056519469539</v>
       </c>
       <c r="H74" t="n">
-        <v>7.831504523733376</v>
+        <v>8.764754871962124</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4741257189514287</v>
+        <v>0.3261788161909471</v>
       </c>
       <c r="J74" t="n">
-        <v>7.831504523733376</v>
+        <v>8.764754871962124</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2583030168684284</v>
+        <v>0.2552514813357123</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.865044345246007</v>
+        <v>8.821627112548562</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4931981546504923</v>
+        <v>0.3007664729667294</v>
       </c>
       <c r="D75" t="n">
-        <v>8.383648244044201</v>
+        <v>8.193029623834647</v>
       </c>
       <c r="E75" t="n">
-        <v>0.388282123229529</v>
+        <v>0.3465360220258297</v>
       </c>
       <c r="F75" t="n">
-        <v>8.383648244044201</v>
+        <v>8.193029623834647</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3843133882031045</v>
+        <v>0.2331071261832734</v>
       </c>
       <c r="H75" t="n">
-        <v>7.865044345246007</v>
+        <v>8.821627112548562</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4656717410824759</v>
+        <v>0.3202882459737863</v>
       </c>
       <c r="J75" t="n">
-        <v>7.865044345246007</v>
+        <v>8.821627112548562</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2715364437835993</v>
+        <v>0.2597387224289756</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.898584166758639</v>
+        <v>8.878499353135002</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4830481903998292</v>
+        <v>0.2858419046704758</v>
       </c>
       <c r="D76" t="n">
-        <v>8.417450310033761</v>
+        <v>8.241506234332274</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3912171288168055</v>
+        <v>0.3438435746367883</v>
       </c>
       <c r="F76" t="n">
-        <v>8.417450310033761</v>
+        <v>8.241506234332274</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3796994726417955</v>
+        <v>0.2393051691123289</v>
       </c>
       <c r="H76" t="n">
-        <v>7.898584166758639</v>
+        <v>8.878499353135002</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4567570824512965</v>
+        <v>0.3135274129805329</v>
       </c>
       <c r="J76" t="n">
-        <v>7.898584166758639</v>
+        <v>8.878499353135002</v>
       </c>
       <c r="K76" t="n">
-        <v>0.284250617874554</v>
+        <v>0.2636285464284978</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.93212398827127</v>
+        <v>8.93537159372144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4720984755796135</v>
+        <v>0.2683195532216366</v>
       </c>
       <c r="D77" t="n">
-        <v>8.451252376023321</v>
+        <v>8.2899828448299</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3949138301567269</v>
+        <v>0.3408791322858211</v>
       </c>
       <c r="F77" t="n">
-        <v>8.451252376023321</v>
+        <v>8.2899828448299</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3748923647988275</v>
+        <v>0.2452585330820784</v>
       </c>
       <c r="H77" t="n">
-        <v>7.93212398827127</v>
+        <v>8.93537159372144</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4476763074595703</v>
+        <v>0.3058343421783609</v>
       </c>
       <c r="J77" t="n">
-        <v>7.93212398827127</v>
+        <v>8.93537159372144</v>
       </c>
       <c r="K77" t="n">
-        <v>0.296382938896151</v>
+        <v>0.2668015365629935</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.965663809783901</v>
+        <v>8.992243834307878</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4605285059503114</v>
+        <v>0.2490497865982538</v>
       </c>
       <c r="D78" t="n">
-        <v>8.485054442012881</v>
+        <v>8.338459455327527</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3991934711794148</v>
+        <v>0.3375937647025918</v>
       </c>
       <c r="F78" t="n">
-        <v>8.485054442012881</v>
+        <v>8.338459455327527</v>
       </c>
       <c r="G78" t="n">
-        <v>0.36998180958461</v>
+        <v>0.250981686325896</v>
       </c>
       <c r="H78" t="n">
-        <v>7.965663809783901</v>
+        <v>8.992243834307878</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4387212884488781</v>
+        <v>0.2972408351068113</v>
       </c>
       <c r="J78" t="n">
-        <v>7.965663809783901</v>
+        <v>8.992243834307878</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3078460153762869</v>
+        <v>0.269172806365324</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.999203631296533</v>
+        <v>9.049116074894318</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4485130688536945</v>
+        <v>0.228998996394647</v>
       </c>
       <c r="D79" t="n">
-        <v>8.51885650800244</v>
+        <v>8.386936065825152</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4038016443421249</v>
+        <v>0.3339216543440094</v>
       </c>
       <c r="F79" t="n">
-        <v>8.51885650800244</v>
+        <v>8.386936065825152</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3650734771025019</v>
+        <v>0.2565486551400578</v>
       </c>
       <c r="H79" t="n">
-        <v>7.999203631296533</v>
+        <v>9.049116074894318</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4301785085391042</v>
+        <v>0.2878157219509878</v>
       </c>
       <c r="J79" t="n">
-        <v>7.999203631296533</v>
+        <v>9.049116074894318</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3186012860180816</v>
+        <v>0.2706531971407549</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.032743452809164</v>
+        <v>9.105988315480756</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4362782085610027</v>
+        <v>0.2090819735342659</v>
       </c>
       <c r="D80" t="n">
-        <v>8.552658573992002</v>
+        <v>8.435412676322779</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4084597251613071</v>
+        <v>0.3298250998253323</v>
       </c>
       <c r="F80" t="n">
-        <v>8.552658573992002</v>
+        <v>8.435412676322779</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3602953795867651</v>
+        <v>0.2619886458034622</v>
       </c>
       <c r="H80" t="n">
-        <v>8.032743452809164</v>
+        <v>9.105988315480756</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4222601053310172</v>
+        <v>0.2776147684874591</v>
       </c>
       <c r="J80" t="n">
-        <v>8.032743452809164</v>
+        <v>9.105988315480756</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3286031714059329</v>
+        <v>0.2712321220448875</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.066283274321798</v>
+        <v>9.162860556067194</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4240482069337615</v>
+        <v>0.1900369710227208</v>
       </c>
       <c r="D81" t="n">
-        <v>8.58646063998156</v>
+        <v>8.483889286820405</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4128362258314958</v>
+        <v>0.3252330172389394</v>
       </c>
       <c r="F81" t="n">
-        <v>8.58646063998156</v>
+        <v>8.483889286820405</v>
       </c>
       <c r="G81" t="n">
-        <v>0.355728192273581</v>
+        <v>0.2673435243523422</v>
       </c>
       <c r="H81" t="n">
-        <v>8.066283274321798</v>
+        <v>9.162860556067194</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4152260475609388</v>
+        <v>0.2667916560893598</v>
       </c>
       <c r="J81" t="n">
-        <v>8.066283274321798</v>
+        <v>9.162860556067194</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3378459811031909</v>
+        <v>0.2709062185313727</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8.099823095834429</v>
+        <v>9.219732796653634</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4120241729867601</v>
+        <v>0.1723776160041888</v>
       </c>
       <c r="D82" t="n">
-        <v>8.620262705971122</v>
+        <v>8.532365897318032</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4166452404928011</v>
+        <v>0.3200944644446804</v>
       </c>
       <c r="F82" t="n">
-        <v>8.620262705971122</v>
+        <v>8.532365897318032</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3515360734294998</v>
+        <v>0.2726387668102086</v>
       </c>
       <c r="H82" t="n">
-        <v>8.099823095834429</v>
+        <v>9.219732796653634</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4092002455714594</v>
+        <v>0.2554731724977224</v>
       </c>
       <c r="J82" t="n">
-        <v>8.099823095834429</v>
+        <v>9.219732796653634</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3463343072176382</v>
+        <v>0.2697631795198706</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.133362917347061</v>
+        <v>9.276605037240072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4004026201140624</v>
+        <v>0.156336523624197</v>
       </c>
       <c r="D83" t="n">
-        <v>8.65406477196068</v>
+        <v>8.580842507815657</v>
       </c>
       <c r="E83" t="n">
-        <v>0.419574109105335</v>
+        <v>0.3143680036218733</v>
       </c>
       <c r="F83" t="n">
-        <v>8.65406477196068</v>
+        <v>8.580842507815657</v>
       </c>
       <c r="G83" t="n">
-        <v>0.347786708240982</v>
+        <v>0.277863748007244</v>
       </c>
       <c r="H83" t="n">
-        <v>8.133362917347061</v>
+        <v>9.276605037240072</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4042756928063019</v>
+        <v>0.243795145451301</v>
       </c>
       <c r="J83" t="n">
-        <v>8.133362917347061</v>
+        <v>9.276605037240072</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3540451821101965</v>
+        <v>0.26788941490545</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.166902738859692</v>
+        <v>9.33347727782651</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3893696348347319</v>
+        <v>0.1419609597694647</v>
       </c>
       <c r="D84" t="n">
-        <v>8.68786683795024</v>
+        <v>8.629319118313283</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4213396055026751</v>
+        <v>0.3080238168964089</v>
       </c>
       <c r="F84" t="n">
-        <v>8.68786683795024</v>
+        <v>8.629319118313283</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3446034766913476</v>
+        <v>0.2830147571923983</v>
       </c>
       <c r="H84" t="n">
-        <v>8.166902738859692</v>
+        <v>9.33347727782651</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4005452085629488</v>
+        <v>0.2319188273280005</v>
       </c>
       <c r="J84" t="n">
-        <v>8.166902738859692</v>
+        <v>9.33347727782651</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3610080523318707</v>
+        <v>0.265447460225245</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.200442560372323</v>
+        <v>9.39034951841295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.379094395276296</v>
+        <v>0.1291681950124115</v>
       </c>
       <c r="D85" t="n">
-        <v>8.721668903939801</v>
+        <v>8.67779572881091</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4217590046405998</v>
+        <v>0.3010206009561329</v>
       </c>
       <c r="F85" t="n">
-        <v>8.721668903939801</v>
+        <v>8.67779572881091</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3420393466974361</v>
+        <v>0.2880511373594759</v>
       </c>
       <c r="H85" t="n">
-        <v>8.200442560372323</v>
+        <v>9.39034951841295</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3979682136045003</v>
+        <v>0.2199323428244503</v>
       </c>
       <c r="J85" t="n">
-        <v>8.200442560372323</v>
+        <v>9.39034951841295</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3672256594877578</v>
+        <v>0.2625704890954529</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.233982381884955</v>
+        <v>9.44722175899939</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3698238230936125</v>
+        <v>0.1178098529524168</v>
       </c>
       <c r="D86" t="n">
-        <v>8.755470969929361</v>
+        <v>8.726272339308537</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4204993453934611</v>
+        <v>0.2933785602225398</v>
       </c>
       <c r="F86" t="n">
-        <v>8.755470969929361</v>
+        <v>8.726272339308537</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3401857955994395</v>
+        <v>0.2929021944778714</v>
       </c>
       <c r="H86" t="n">
-        <v>8.233982381884955</v>
+        <v>9.44722175899939</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3965104942705792</v>
+        <v>0.2079732760121254</v>
       </c>
       <c r="J86" t="n">
-        <v>8.233982381884955</v>
+        <v>9.44722175899939</v>
       </c>
       <c r="K86" t="n">
-        <v>0.372713162762976</v>
+        <v>0.259415125696793</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.267522203397586</v>
+        <v>9.504093999585827</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3616035196802765</v>
+        <v>0.107722097361916</v>
       </c>
       <c r="D87" t="n">
-        <v>8.789273035918921</v>
+        <v>8.774748949806163</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4175391285987203</v>
+        <v>0.2851157020307211</v>
       </c>
       <c r="F87" t="n">
-        <v>8.789273035918921</v>
+        <v>8.774748949806163</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3390612020186715</v>
+        <v>0.2974862226402525</v>
       </c>
       <c r="H87" t="n">
-        <v>8.267522203397586</v>
+        <v>9.504093999585827</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3961312332890344</v>
+        <v>0.1961214221625792</v>
       </c>
       <c r="J87" t="n">
-        <v>8.267522203397586</v>
+        <v>9.504093999585827</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3774490399050797</v>
+        <v>0.2561225547505748</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.30106202491022</v>
+        <v>9.560966240172267</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3544856938890917</v>
+        <v>0.09875742455384769</v>
       </c>
       <c r="D88" t="n">
-        <v>8.823075101908481</v>
+        <v>8.82322556030379</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4127385628277528</v>
+        <v>0.2762570912105658</v>
       </c>
       <c r="F88" t="n">
-        <v>8.823075101908481</v>
+        <v>8.82322556030379</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3386733030807405</v>
+        <v>0.3017303958209153</v>
       </c>
       <c r="H88" t="n">
-        <v>8.30106202491022</v>
+        <v>9.560966240172267</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3966812846411943</v>
+        <v>0.1844486783820982</v>
       </c>
       <c r="J88" t="n">
-        <v>8.30106202491022</v>
+        <v>9.560966240172267</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3814744968083579</v>
+        <v>0.2527739295773068</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.334601846422849</v>
+        <v>9.617838480758707</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3484949559686741</v>
+        <v>0.0907991431454281</v>
       </c>
       <c r="D89" t="n">
-        <v>8.856877167898041</v>
+        <v>8.871702170801417</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4060390959529727</v>
+        <v>0.2668674314019643</v>
       </c>
       <c r="F89" t="n">
-        <v>8.856877167898041</v>
+        <v>8.871702170801417</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3390013171772434</v>
+        <v>0.3055384196186309</v>
       </c>
       <c r="H89" t="n">
-        <v>8.334601846422849</v>
+        <v>9.617838480758707</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3980655296673896</v>
+        <v>0.1730350105269928</v>
       </c>
       <c r="J89" t="n">
-        <v>8.334601846422849</v>
+        <v>9.617838480758707</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3847641894940891</v>
+        <v>0.2494471628484476</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.368141667935483</v>
+        <v>9.674710721345145</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3436103164214422</v>
+        <v>0.08376147095775954</v>
       </c>
       <c r="D90" t="n">
-        <v>8.890679233887601</v>
+        <v>8.920178781299041</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3975259681322992</v>
+        <v>0.2570368462447462</v>
       </c>
       <c r="F90" t="n">
-        <v>8.890679233887601</v>
+        <v>8.920178781299041</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3400462105958209</v>
+        <v>0.3088471249902497</v>
       </c>
       <c r="H90" t="n">
-        <v>8.368141667935483</v>
+        <v>9.674710721345145</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4002085343474979</v>
+        <v>0.1619259962784802</v>
       </c>
       <c r="J90" t="n">
-        <v>8.368141667935483</v>
+        <v>9.674710721345145</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3872988585655792</v>
+        <v>0.246152882819646</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.401681489448114</v>
+        <v>9.731582961931583</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3397640825851201</v>
+        <v>0.07757837599399779</v>
       </c>
       <c r="D91" t="n">
-        <v>8.924481299877161</v>
+        <v>8.968655391796668</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3872735917530125</v>
+        <v>0.2468706061708589</v>
       </c>
       <c r="F91" t="n">
-        <v>8.924481299877161</v>
+        <v>8.968655391796668</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3416659380740437</v>
+        <v>0.3115681790133238</v>
       </c>
       <c r="H91" t="n">
-        <v>8.401681489448114</v>
+        <v>9.731582961931583</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4029356532834156</v>
+        <v>0.1511870838240647</v>
       </c>
       <c r="J91" t="n">
-        <v>8.401681489448114</v>
+        <v>9.731582961931583</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3891454635099001</v>
+        <v>0.2428794314143438</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.435221310960745</v>
+        <v>9.788455202518023</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3368621537736707</v>
+        <v>0.07218491212021955</v>
       </c>
       <c r="D92" t="n">
-        <v>8.958283365866722</v>
+        <v>9.017132002294295</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3753386516074088</v>
+        <v>0.2364825225093548</v>
       </c>
       <c r="F92" t="n">
-        <v>8.958283365866722</v>
+        <v>9.017132002294295</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3438202092941062</v>
+        <v>0.3136483683921389</v>
       </c>
       <c r="H92" t="n">
-        <v>8.435221310960745</v>
+        <v>9.788455202518023</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4061437998133292</v>
+        <v>0.1408666044934616</v>
       </c>
       <c r="J92" t="n">
-        <v>8.435221310960745</v>
+        <v>9.788455202518023</v>
       </c>
       <c r="K92" t="n">
-        <v>0.390258748033406</v>
+        <v>0.2396076907172106</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8.468761132473377</v>
+        <v>9.845327443104461</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3347726655619555</v>
+        <v>0.06749655709169949</v>
       </c>
       <c r="D93" t="n">
-        <v>8.992085431856282</v>
+        <v>9.06560861279192</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3619470272642037</v>
+        <v>0.2259975621009926</v>
       </c>
       <c r="F93" t="n">
-        <v>8.992085431856282</v>
+        <v>9.06560861279192</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3463681139374019</v>
+        <v>0.3150599434770286</v>
       </c>
       <c r="H93" t="n">
-        <v>8.468761132473377</v>
+        <v>9.845327443104461</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4097020418841506</v>
+        <v>0.1310223436397794</v>
       </c>
       <c r="J93" t="n">
-        <v>8.468761132473377</v>
+        <v>9.845327443104461</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3906411076752943</v>
+        <v>0.2363048602119219</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8.502300953986008</v>
+        <v>9.902199683690899</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3332125047688276</v>
+        <v>0.06339388442311251</v>
       </c>
       <c r="D94" t="n">
-        <v>9.02588749784584</v>
+        <v>9.114085223289546</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3473027533034202</v>
+        <v>0.2155502246554208</v>
       </c>
       <c r="F94" t="n">
-        <v>9.02588749784584</v>
+        <v>9.114085223289546</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3491607765854161</v>
+        <v>0.3157867548583258</v>
       </c>
       <c r="H94" t="n">
-        <v>8.502300953986008</v>
+        <v>9.902199683690899</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4134748356377441</v>
+        <v>0.1216800117663289</v>
       </c>
       <c r="J94" t="n">
-        <v>8.502300953986008</v>
+        <v>9.902199683690899</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3903601372099741</v>
+        <v>0.2329449951863959</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.53584077549864</v>
+        <v>9.959071924277339</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3319535697256744</v>
+        <v>0.05971987145086104</v>
       </c>
       <c r="D95" t="n">
-        <v>9.059689563835402</v>
+        <v>9.162561833787173</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3315687372637047</v>
+        <v>0.2052559841977039</v>
       </c>
       <c r="F95" t="n">
-        <v>9.059689563835402</v>
+        <v>9.162561833787173</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3520587292100864</v>
+        <v>0.3158509478176057</v>
       </c>
       <c r="H95" t="n">
-        <v>8.53584077549864</v>
+        <v>9.959071924277339</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4172685720876375</v>
+        <v>0.1128840568545547</v>
       </c>
       <c r="J95" t="n">
-        <v>8.53584077549864</v>
+        <v>9.959071924277339</v>
       </c>
       <c r="K95" t="n">
-        <v>0.389452493514706</v>
+        <v>0.2295345451556477</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8.569380597011271</v>
+        <v>10.01594416486378</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3307514978411397</v>
+        <v>0.05629400406181211</v>
       </c>
       <c r="D96" t="n">
-        <v>9.09349162982496</v>
+        <v>9.211038444284799</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3149636433190263</v>
+        <v>0.1952272911178189</v>
       </c>
       <c r="F96" t="n">
-        <v>9.09349162982496</v>
+        <v>9.211038444284799</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3548921570209463</v>
+        <v>0.3152625916686245</v>
       </c>
       <c r="H96" t="n">
-        <v>8.569380597011271</v>
+        <v>10.01594416486378</v>
       </c>
       <c r="I96" t="n">
-        <v>0.42090147100012</v>
+        <v>0.1046304734246029</v>
       </c>
       <c r="J96" t="n">
-        <v>8.569380597011271</v>
+        <v>10.01594416486378</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3879264657397683</v>
+        <v>0.2260824862523927</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.602920418523905</v>
+        <v>10.07281640545022</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3293570471548362</v>
+        <v>0.0529415620727965</v>
       </c>
       <c r="D97" t="n">
-        <v>9.127293695814521</v>
+        <v>9.259515054782426</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2977151706889339</v>
+        <v>0.1855476889652012</v>
       </c>
       <c r="F97" t="n">
-        <v>9.127293695814521</v>
+        <v>9.259515054782426</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3574963280342793</v>
+        <v>0.3140688315770543</v>
       </c>
       <c r="H97" t="n">
-        <v>8.602920418523905</v>
+        <v>10.07281640545022</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4241589175745953</v>
+        <v>0.09690081919647602</v>
       </c>
       <c r="J97" t="n">
-        <v>8.602920418523905</v>
+        <v>10.07281640545022</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3858875261080257</v>
+        <v>0.2226343413847932</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.636460240036534</v>
+        <v>10.12968864603666</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3275281888530021</v>
+        <v>0.04953023738354897</v>
       </c>
       <c r="D98" t="n">
-        <v>9.161095761804081</v>
+        <v>9.307991665280053</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2800601861410549</v>
+        <v>0.1763074134385029</v>
       </c>
       <c r="F98" t="n">
-        <v>9.161095761804081</v>
+        <v>9.307991665280053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3597217894473734</v>
+        <v>0.3123381660634116</v>
       </c>
       <c r="H98" t="n">
-        <v>8.636460240036534</v>
+        <v>10.12968864603666</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4268087935073555</v>
+        <v>0.08967485253602109</v>
       </c>
       <c r="J98" t="n">
-        <v>8.636460240036534</v>
+        <v>10.12968864603666</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3834142767266887</v>
+        <v>0.2192305800513462</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.670000061549167</v>
+        <v>10.18656088662309</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3249843847943956</v>
+        <v>0.04600233048144479</v>
       </c>
       <c r="D99" t="n">
-        <v>9.194897827793641</v>
+        <v>9.356468275777679</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2621661548889618</v>
+        <v>0.167516687938477</v>
       </c>
       <c r="F99" t="n">
-        <v>9.194897827793641</v>
+        <v>9.356468275777679</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3614071735669175</v>
+        <v>0.3101219893184511</v>
       </c>
       <c r="H99" t="n">
-        <v>8.670000061549167</v>
+        <v>10.18656088662309</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4285807507367617</v>
+        <v>0.08288736635887502</v>
       </c>
       <c r="J99" t="n">
-        <v>8.670000061549167</v>
+        <v>10.18656088662309</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3805691257407347</v>
+        <v>0.2159196401185019</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.703539883061799</v>
+        <v>10.24343312720953</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3215254458407826</v>
+        <v>0.04239109886838088</v>
       </c>
       <c r="D100" t="n">
-        <v>9.228699893783201</v>
+        <v>9.404944886275304</v>
       </c>
       <c r="E100" t="n">
-        <v>0.244247062388956</v>
+        <v>0.159216530081756</v>
       </c>
       <c r="F100" t="n">
-        <v>9.228699893783201</v>
+        <v>9.404944886275304</v>
       </c>
       <c r="G100" t="n">
-        <v>0.362456718019422</v>
+        <v>0.307504094431958</v>
       </c>
       <c r="H100" t="n">
-        <v>8.703539883061799</v>
+        <v>10.24343312720953</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4292079510649247</v>
+        <v>0.07648327125673055</v>
       </c>
       <c r="J100" t="n">
-        <v>8.703539883061799</v>
+        <v>10.24343312720953</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3774732336154005</v>
+        <v>0.2127410441664404</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.73707970457443</v>
+        <v>10.30030536779597</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3170465949052134</v>
+        <v>0.0388144472482767</v>
       </c>
       <c r="D101" t="n">
-        <v>9.262501959772761</v>
+        <v>9.453421496772931</v>
       </c>
       <c r="E101" t="n">
-        <v>0.226487146072784</v>
+        <v>0.1513824716897192</v>
       </c>
       <c r="F101" t="n">
-        <v>9.262501959772761</v>
+        <v>9.453421496772931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3627507840663379</v>
+        <v>0.3045442194240454</v>
       </c>
       <c r="H101" t="n">
-        <v>8.73707970457443</v>
+        <v>10.30030536779597</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4285108582233201</v>
+        <v>0.07042856165858195</v>
       </c>
       <c r="J101" t="n">
-        <v>8.73707970457443</v>
+        <v>10.30030536779597</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3742322519890804</v>
+        <v>0.209721420521943</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.770619526087062</v>
+        <v>10.35717760838241</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3114596665933883</v>
+        <v>0.03544947090209987</v>
       </c>
       <c r="D102" t="n">
-        <v>9.296304025762321</v>
+        <v>9.501898107270558</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2090207597604396</v>
+        <v>0.1439938970472067</v>
       </c>
       <c r="F102" t="n">
-        <v>9.296304025762321</v>
+        <v>9.501898107270558</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3622562124227525</v>
+        <v>0.3012981897131957</v>
       </c>
       <c r="H102" t="n">
-        <v>8.770619526087062</v>
+        <v>10.35717760838241</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4262442813538385</v>
+        <v>0.0646617148837091</v>
       </c>
       <c r="J102" t="n">
-        <v>8.770619526087062</v>
+        <v>10.35717760838241</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3709457555795619</v>
+        <v>0.2068569180923164</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.804159347599693</v>
+        <v>10.41404984896885</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3047299464893489</v>
+        <v>0.03248421210579086</v>
       </c>
       <c r="D103" t="n">
-        <v>9.330106091751881</v>
+        <v>9.550374717768182</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1920056357831715</v>
+        <v>0.1370282400605691</v>
       </c>
       <c r="F103" t="n">
-        <v>9.330106091751881</v>
+        <v>9.550374717768182</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3608825155652804</v>
+        <v>0.29785350050625</v>
       </c>
       <c r="H103" t="n">
-        <v>8.804159347599693</v>
+        <v>10.41404984896885</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4222715908297991</v>
+        <v>0.05914670737889541</v>
       </c>
       <c r="J103" t="n">
-        <v>8.804159347599693</v>
+        <v>10.41404984896885</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3677170420964697</v>
+        <v>0.2041354543605493</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.837699169112325</v>
+        <v>10.47092208955529</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2968764502817147</v>
+        <v>0.03006560036717534</v>
       </c>
       <c r="D104" t="n">
-        <v>9.363908157741442</v>
+        <v>9.598851328265809</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1755332783344437</v>
+        <v>0.1304263584682189</v>
       </c>
       <c r="F104" t="n">
-        <v>9.363908157741442</v>
+        <v>9.598851328265809</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3586871299790713</v>
+        <v>0.2942035662523399</v>
       </c>
       <c r="H104" t="n">
-        <v>8.837699169112325</v>
+        <v>10.47092208955529</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4165249254665143</v>
+        <v>0.05388025251569323</v>
       </c>
       <c r="J104" t="n">
-        <v>8.837699169112325</v>
+        <v>10.47092208955529</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3646476783356906</v>
+        <v>0.2015314140634451</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.871238990624956</v>
+        <v>10.52779433014173</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2879689131435442</v>
+        <v>0.02826623462171565</v>
       </c>
       <c r="D105" t="n">
-        <v>9.397710223731002</v>
+        <v>9.647327938763436</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1597337660986234</v>
+        <v>0.1241406219284364</v>
       </c>
       <c r="F105" t="n">
-        <v>9.397710223731002</v>
+        <v>9.647327938763436</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3556650572579302</v>
+        <v>0.2904059815482681</v>
       </c>
       <c r="H105" t="n">
-        <v>8.871238990624956</v>
+        <v>10.52779433014173</v>
       </c>
       <c r="I105" t="n">
-        <v>0.408975207496487</v>
+        <v>0.04884928739486617</v>
       </c>
       <c r="J105" t="n">
-        <v>8.871238990624956</v>
+        <v>10.52779433014173</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3618335289657484</v>
+        <v>0.1989929753796961</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.904778812137589</v>
+        <v>10.58466657072816</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2780355399496076</v>
+        <v>0.02706356626469068</v>
       </c>
       <c r="D106" t="n">
-        <v>9.431512289720562</v>
+        <v>9.695804549261062</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1446305120826727</v>
+        <v>0.1181346427360201</v>
       </c>
       <c r="F106" t="n">
-        <v>9.431512289720562</v>
+        <v>9.695804549261062</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3518205842042314</v>
+        <v>0.2864399494618149</v>
       </c>
       <c r="H106" t="n">
-        <v>8.904778812137589</v>
+        <v>10.58466657072816</v>
       </c>
       <c r="I106" t="n">
-        <v>0.39970268008781</v>
+        <v>0.04406375244684824</v>
       </c>
       <c r="J106" t="n">
-        <v>8.904778812137589</v>
+        <v>10.58466657072816</v>
       </c>
       <c r="K106" t="n">
-        <v>0.359349847076117</v>
+        <v>0.196460091997702</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.938318633650221</v>
+        <v>10.6415388113146</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2673436399299338</v>
+        <v>0.02634164165699731</v>
       </c>
       <c r="D107" t="n">
-        <v>9.46531435571012</v>
+        <v>9.744281159758689</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1302838019092395</v>
+        <v>0.1123548334671504</v>
       </c>
       <c r="F107" t="n">
-        <v>9.46531435571012</v>
+        <v>9.744281159758689</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3472657386770077</v>
+        <v>0.2823359859353309</v>
       </c>
       <c r="H107" t="n">
-        <v>8.938318633650221</v>
+        <v>10.6415388113146</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3887973021483957</v>
+        <v>0.03954595622160991</v>
       </c>
       <c r="J107" t="n">
-        <v>8.938318633650221</v>
+        <v>10.6415388113146</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3572455373967757</v>
+        <v>0.1938689643772661</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.971858455162852</v>
+        <v>10.69841105190104</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2560795823580836</v>
+        <v>0.02591257930978293</v>
       </c>
       <c r="D108" t="n">
-        <v>9.499116421699682</v>
+        <v>9.792757770256316</v>
       </c>
       <c r="E108" t="n">
-        <v>0.116788438331409</v>
+        <v>0.106778102639799</v>
       </c>
       <c r="F108" t="n">
-        <v>9.499116421699682</v>
+        <v>9.792757770256316</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3420527885878303</v>
+        <v>0.2780650581845447</v>
       </c>
       <c r="H108" t="n">
-        <v>8.971858455162852</v>
+        <v>10.69841105190104</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3764025436215399</v>
+        <v>0.03530935894520606</v>
       </c>
       <c r="J108" t="n">
-        <v>8.971858455162852</v>
+        <v>10.69841105190104</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3555834969514159</v>
+        <v>0.191149787715339</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.005398276675484</v>
+        <v>10.75528329248748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2444344416211182</v>
+        <v>0.02555178088837639</v>
       </c>
       <c r="D109" t="n">
-        <v>9.532918487689241</v>
+        <v>9.841234380753942</v>
       </c>
       <c r="E109" t="n">
-        <v>0.104123114387215</v>
+        <v>0.1013653341054034</v>
       </c>
       <c r="F109" t="n">
-        <v>9.532918487689241</v>
+        <v>9.841234380753942</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3362128338831266</v>
+        <v>0.273609239481455</v>
       </c>
       <c r="H109" t="n">
-        <v>9.005398276675484</v>
+        <v>10.75528329248748</v>
       </c>
       <c r="I109" t="n">
-        <v>0.362766349408296</v>
+        <v>0.03136916560301972</v>
       </c>
       <c r="J109" t="n">
-        <v>9.005398276675484</v>
+        <v>10.75528329248748</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3543945531778751</v>
+        <v>0.1882528078636372</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.038938098188115</v>
+        <v>10.81215553307392</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2325989605983112</v>
+        <v>0.02503858612991216</v>
       </c>
       <c r="D110" t="n">
-        <v>9.566720553678802</v>
+        <v>9.889710991251569</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09234313730278416</v>
+        <v>0.0960926291628354</v>
       </c>
       <c r="F110" t="n">
-        <v>9.566720553678802</v>
+        <v>9.889710991251569</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3298706252572268</v>
+        <v>0.2689728935231904</v>
       </c>
       <c r="H110" t="n">
-        <v>9.038938098188115</v>
+        <v>10.81215553307392</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3480766841725449</v>
+        <v>0.02773722186974618</v>
       </c>
       <c r="J110" t="n">
-        <v>9.038938098188115</v>
+        <v>10.81215553307392</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3536879372579996</v>
+        <v>0.1850617862572323</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.072477919700747</v>
+        <v>10.86902777366036</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2207537549698237</v>
+        <v>0.02419384758219912</v>
       </c>
       <c r="D111" t="n">
-        <v>9.600522619668361</v>
+        <v>9.938187601749194</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0814618663469477</v>
+        <v>0.09094443081029412</v>
       </c>
       <c r="F111" t="n">
-        <v>9.600522619668361</v>
+        <v>9.938187601749194</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3230520824626645</v>
+        <v>0.2641281704869196</v>
       </c>
       <c r="H111" t="n">
-        <v>9.072477919700747</v>
+        <v>10.86902777366036</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3325184859058917</v>
+        <v>0.02442500254279158</v>
       </c>
       <c r="J111" t="n">
-        <v>9.072477919700747</v>
+        <v>10.86902777366036</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3534677874464079</v>
+        <v>0.1815837266668209</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.106017741213378</v>
+        <v>10.9259000142468</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2090720042189489</v>
+        <v>0.02290741752749449</v>
       </c>
       <c r="D112" t="n">
-        <v>9.634324685657921</v>
+        <v>9.98666421224682</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07148962097819025</v>
+        <v>0.08590806429015133</v>
       </c>
       <c r="F112" t="n">
-        <v>9.634324685657921</v>
+        <v>9.98666421224682</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3158253365481509</v>
+        <v>0.2590770232939763</v>
       </c>
       <c r="H112" t="n">
-        <v>9.106017741213378</v>
+        <v>10.9259000142468</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3163645765070125</v>
+        <v>0.02142901482180008</v>
       </c>
       <c r="J112" t="n">
-        <v>9.106017741213378</v>
+        <v>10.9259000142468</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3537088485842744</v>
+        <v>0.1777560234028961</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.139557562726011</v>
+        <v>10.98277225483324</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1977205840856638</v>
+        <v>0.02115123653111024</v>
       </c>
       <c r="D113" t="n">
-        <v>9.668126751647481</v>
+        <v>10.03514082274445</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06245829475238841</v>
+        <v>0.08096978172150664</v>
       </c>
       <c r="F113" t="n">
-        <v>9.668126751647481</v>
+        <v>10.03514082274445</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3082386494759596</v>
+        <v>0.2537985786063959</v>
       </c>
       <c r="H113" t="n">
-        <v>9.139557562726011</v>
+        <v>10.98277225483324</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2997418827997788</v>
+        <v>0.01873043044362059</v>
       </c>
       <c r="J113" t="n">
-        <v>9.139557562726011</v>
+        <v>10.98277225483324</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3543922270777055</v>
+        <v>0.1735652608187847</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.173097384238641</v>
+        <v>11.03964449541968</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1867882694337463</v>
+        <v>0.01897692335839288</v>
       </c>
       <c r="D114" t="n">
-        <v>9.701928817637041</v>
+        <v>10.08361743324207</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05432047535251354</v>
+        <v>0.07612909674670842</v>
       </c>
       <c r="F114" t="n">
-        <v>9.701928817637041</v>
+        <v>10.08361743324207</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3003150902873136</v>
+        <v>0.2483221938094487</v>
       </c>
       <c r="H114" t="n">
-        <v>9.173097384238641</v>
+        <v>11.03964449541968</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2828589384510372</v>
+        <v>0.01632202518987581</v>
       </c>
       <c r="J114" t="n">
-        <v>9.173097384238641</v>
+        <v>11.03964449541968</v>
       </c>
       <c r="K114" t="n">
-        <v>0.355481032957161</v>
+        <v>0.1690220679706048</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.206637205751274</v>
+        <v>11.09651673600611</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1763501202406094</v>
+        <v>0.0164998448038497</v>
       </c>
       <c r="D115" t="n">
-        <v>9.735730883626601</v>
+        <v>10.1320940437397</v>
       </c>
       <c r="E115" t="n">
-        <v>0.04708823510705457</v>
+        <v>0.07138162610251053</v>
       </c>
       <c r="F115" t="n">
-        <v>9.735730883626601</v>
+        <v>10.1320940437397</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2920992115921234</v>
+        <v>0.2426543085520469</v>
       </c>
       <c r="H115" t="n">
-        <v>9.206637205751274</v>
+        <v>11.09651673600611</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2658688601431702</v>
+        <v>0.01418489827787549</v>
       </c>
       <c r="J115" t="n">
-        <v>9.206637205751274</v>
+        <v>11.09651673600611</v>
       </c>
       <c r="K115" t="n">
-        <v>0.356900567186956</v>
+        <v>0.1641655819526668</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.240177027263906</v>
+        <v>11.15338897659255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.166454588009498</v>
+        <v>0.01387404385509881</v>
       </c>
       <c r="D116" t="n">
-        <v>9.769532949616162</v>
+        <v>10.18057065423733</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04069614938202491</v>
+        <v>0.06673441090756209</v>
       </c>
       <c r="F116" t="n">
-        <v>9.769532949616162</v>
+        <v>10.18057065423733</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2835757404358193</v>
+        <v>0.2367969059501367</v>
       </c>
       <c r="H116" t="n">
-        <v>9.240177027263906</v>
+        <v>11.15338897659255</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2488825270002545</v>
+        <v>0.01229290001232218</v>
       </c>
       <c r="J116" t="n">
-        <v>9.240177027263906</v>
+        <v>11.15338897659255</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3585918474176675</v>
+        <v>0.1590364605337362</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.273716848776537</v>
+        <v>11.21026121717899</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1571265057023255</v>
+        <v>0.011263726927291</v>
       </c>
       <c r="D117" t="n">
-        <v>9.803335015605722</v>
+        <v>10.22904726473495</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03509948792824232</v>
+        <v>0.06219089894514077</v>
       </c>
       <c r="F117" t="n">
-        <v>9.803335015605722</v>
+        <v>10.22904726473495</v>
       </c>
       <c r="G117" t="n">
-        <v>0.274801232132747</v>
+        <v>0.2307836553964791</v>
       </c>
       <c r="H117" t="n">
-        <v>9.273716848776537</v>
+        <v>11.21026121717899</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2320276824585636</v>
+        <v>0.01063664815352511</v>
       </c>
       <c r="J117" t="n">
-        <v>9.273716848776537</v>
+        <v>11.21026121717899</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3604854424289043</v>
+        <v>0.1536937239114583</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.307256670289169</v>
+        <v>11.26713345776543</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1483709808612297</v>
+        <v>0.008817057987656913</v>
       </c>
       <c r="D118" t="n">
-        <v>9.837137081595282</v>
+        <v>10.27752387523258</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03026819639776929</v>
+        <v>0.05776878472984955</v>
       </c>
       <c r="F118" t="n">
-        <v>9.837137081595282</v>
+        <v>10.27752387523258</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2657010429313643</v>
+        <v>0.2246223755318674</v>
       </c>
       <c r="H118" t="n">
-        <v>9.307256670289169</v>
+        <v>11.26713345776543</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2154039353282853</v>
+        <v>0.009182343467772115</v>
       </c>
       <c r="J118" t="n">
-        <v>9.307256670289169</v>
+        <v>11.26713345776543</v>
       </c>
       <c r="K118" t="n">
-        <v>0.36247546678305</v>
+        <v>0.1482154066378378</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.3407964918018</v>
+        <v>11.32400569835187</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1402195198227832</v>
+        <v>0.006646836763134405</v>
       </c>
       <c r="D119" t="n">
-        <v>9.870939147584842</v>
+        <v>10.32600048573021</v>
       </c>
       <c r="E119" t="n">
-        <v>0.02607023470059994</v>
+        <v>0.0534735718097222</v>
       </c>
       <c r="F119" t="n">
-        <v>9.870939147584842</v>
+        <v>10.32600048573021</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2563641399382484</v>
+        <v>0.2183414538171302</v>
       </c>
       <c r="H119" t="n">
-        <v>9.3407964918018</v>
+        <v>11.32400569835187</v>
       </c>
       <c r="I119" t="n">
-        <v>0.199100903011651</v>
+        <v>0.007901652482385653</v>
       </c>
       <c r="J119" t="n">
-        <v>9.3407964918018</v>
+        <v>11.32400569835187</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3644711427962575</v>
+        <v>0.1426654292729126</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.374336313314432</v>
+        <v>11.38087793893831</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1326246312810896</v>
+        <v>0.004820585743342097</v>
       </c>
       <c r="D120" t="n">
-        <v>9.904741213574402</v>
+        <v>10.37447709622783</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02245377169656934</v>
+        <v>0.049330961794417</v>
       </c>
       <c r="F120" t="n">
-        <v>9.904741213574402</v>
+        <v>10.37447709622783</v>
       </c>
       <c r="G120" t="n">
-        <v>0.2466761642688388</v>
+        <v>0.2119391099454734</v>
       </c>
       <c r="H120" t="n">
-        <v>9.374336313314432</v>
+        <v>11.38087793893831</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1831973400068846</v>
+        <v>0.006787343222172408</v>
       </c>
       <c r="J120" t="n">
-        <v>9.374336313314432</v>
+        <v>11.38087793893831</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3663726837028489</v>
+        <v>0.1371082747098838</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.407876134827063</v>
+        <v>11.43775017952475</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1255351955256514</v>
+        <v>0.003360195697353296</v>
       </c>
       <c r="D121" t="n">
-        <v>9.938543279563962</v>
+        <v>10.42295370672546</v>
       </c>
       <c r="E121" t="n">
-        <v>0.01935692816074115</v>
+        <v>0.0453452390782698</v>
       </c>
       <c r="F121" t="n">
-        <v>9.938543279563962</v>
+        <v>10.42295370672546</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2367472450759352</v>
+        <v>0.2054361776156395</v>
       </c>
       <c r="H121" t="n">
-        <v>9.407876134827063</v>
+        <v>11.43775017952475</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1677648625738095</v>
+        <v>0.00581815445862035</v>
       </c>
       <c r="J121" t="n">
-        <v>9.407876134827063</v>
+        <v>11.43775017952475</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3680499325591392</v>
+        <v>0.131597607134103</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.441415956339696</v>
+        <v>11.49462242011118</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1189188884271601</v>
+        <v>0.00224986738122095</v>
       </c>
       <c r="D122" t="n">
-        <v>9.972345345553521</v>
+        <v>10.47143031722308</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0166846757953008</v>
+        <v>0.04153822521323439</v>
       </c>
       <c r="F122" t="n">
-        <v>9.972345345553521</v>
+        <v>10.47143031722308</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2264948449862479</v>
+        <v>0.1988617800594107</v>
       </c>
       <c r="H122" t="n">
-        <v>9.441415956339696</v>
+        <v>11.49462242011118</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1529014648480392</v>
+        <v>0.004981813061255145</v>
       </c>
       <c r="J122" t="n">
-        <v>9.441415956339696</v>
+        <v>11.49462242011118</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3694067890037123</v>
+        <v>0.1261802375579791</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.474955777852326</v>
+        <v>11.55149466069762</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1127432264644053</v>
+        <v>0.00144831449853772</v>
       </c>
       <c r="D123" t="n">
-        <v>10.00614741154308</v>
+        <v>10.51990692772071</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01437782287384827</v>
+        <v>0.03791775530009687</v>
       </c>
       <c r="F123" t="n">
-        <v>10.00614741154308</v>
+        <v>10.51990692772071</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2160021107195193</v>
+        <v>0.1922173442303593</v>
       </c>
       <c r="H123" t="n">
-        <v>9.474955777852326</v>
+        <v>11.55149466069762</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1386364557499962</v>
+        <v>0.004261699121726492</v>
       </c>
       <c r="J123" t="n">
-        <v>9.474955777852326</v>
+        <v>11.55149466069762</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3703246749411816</v>
+        <v>0.1208821086974896</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.508495599364959</v>
+        <v>11.60836690128406</v>
       </c>
       <c r="C124" t="n">
-        <v>0.106977432227655</v>
+        <v>0.0008948032194844517</v>
       </c>
       <c r="D124" t="n">
-        <v>10.03994947753264</v>
+        <v>10.56838353821833</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01237365504560462</v>
+        <v>0.03449520336960634</v>
       </c>
       <c r="F124" t="n">
-        <v>10.03994947753264</v>
+        <v>10.56838353821833</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2052665258490192</v>
+        <v>0.1855213565364551</v>
       </c>
       <c r="H124" t="n">
-        <v>9.508495599364959</v>
+        <v>11.60836690128406</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1250399408500471</v>
+        <v>0.00365361490052727</v>
       </c>
       <c r="J124" t="n">
-        <v>9.508495599364959</v>
+        <v>11.60836690128406</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3706819607566926</v>
+        <v>0.1157090918491413</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.542035420877591</v>
+        <v>11.6652391418705</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1015949403029934</v>
+        <v>0.000530279006229956</v>
       </c>
       <c r="D125" t="n">
-        <v>10.0737515435222</v>
+        <v>10.61686014871596</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01063364850525891</v>
+        <v>0.03127608493928995</v>
       </c>
       <c r="F125" t="n">
-        <v>10.0737515435222</v>
+        <v>10.61686014871596</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1943509900834169</v>
+        <v>0.1787758783428414</v>
       </c>
       <c r="H125" t="n">
-        <v>9.542035420877591</v>
+        <v>11.6652391418705</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1121833844707491</v>
+        <v>0.003140077316982124</v>
       </c>
       <c r="J125" t="n">
-        <v>9.542035420877591</v>
+        <v>11.6652391418705</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3703986463952562</v>
+        <v>0.1106969008552633</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.575575242390222</v>
+        <v>11.72211138245694</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09660800501107203</v>
+        <v>0.0003012771061145855</v>
       </c>
       <c r="D126" t="n">
-        <v>10.10755360951176</v>
+        <v>10.66533675921359</v>
       </c>
       <c r="E126" t="n">
-        <v>0.009123050734786817</v>
+        <v>0.02826694735182165</v>
       </c>
       <c r="F126" t="n">
-        <v>10.10755360951176</v>
+        <v>10.66533675921359</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1833082323601375</v>
+        <v>0.1720017310193541</v>
       </c>
       <c r="H126" t="n">
-        <v>9.575575242390222</v>
+        <v>11.72211138245694</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1000813422799549</v>
+        <v>0.002696468933899493</v>
       </c>
       <c r="J126" t="n">
-        <v>9.575575242390222</v>
+        <v>11.72211138245694</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3693752603153768</v>
+        <v>0.1058043964053949</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.609115063902854</v>
+        <v>11.77898362304338</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09195496280136936</v>
+        <v>0.0001640220486017904</v>
       </c>
       <c r="D127" t="n">
-        <v>10.14135567550132</v>
+        <v>10.71381336971121</v>
       </c>
       <c r="E127" t="n">
-        <v>0.00780157267211936</v>
+        <v>0.02546018370269943</v>
       </c>
       <c r="F127" t="n">
-        <v>10.14135567550132</v>
+        <v>10.71381336971121</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1722283926646657</v>
+        <v>0.1652074768013894</v>
       </c>
       <c r="H127" t="n">
-        <v>9.609115063902854</v>
+        <v>11.77898362304338</v>
       </c>
       <c r="I127" t="n">
-        <v>0.08877527601416141</v>
+        <v>0.002312907607890983</v>
       </c>
       <c r="J127" t="n">
-        <v>9.609115063902854</v>
+        <v>11.77898362304338</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3675282731246967</v>
+        <v>0.1010351234958366</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.642654885415485</v>
+        <v>11.83585586362982</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08761970540198946</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D128" t="n">
-        <v>10.17515774149088</v>
+        <v>10.76228998020884</v>
       </c>
       <c r="E128" t="n">
-        <v>0.006672667608157543</v>
+        <v>0.02286391785460005</v>
       </c>
       <c r="F128" t="n">
-        <v>10.17515774149088</v>
+        <v>10.76228998020884</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1611953874363981</v>
+        <v>0.1584089164908962</v>
       </c>
       <c r="H128" t="n">
-        <v>9.642654885415485</v>
+        <v>11.83585586362982</v>
       </c>
       <c r="I128" t="n">
-        <v>0.07827944473262773</v>
+        <v>0.0019849468177413</v>
       </c>
       <c r="J128" t="n">
-        <v>9.642654885415485</v>
+        <v>11.83585586362982</v>
       </c>
       <c r="K128" t="n">
-        <v>0.3648223443999969</v>
+        <v>0.09638651703871236</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.676194706928118</v>
+        <v>11.89272810421626</v>
       </c>
       <c r="C129" t="n">
-        <v>0.08358863951586441</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D129" t="n">
-        <v>10.20895980748044</v>
+        <v>10.81076659070647</v>
       </c>
       <c r="E129" t="n">
-        <v>0.005717966657232446</v>
+        <v>0.02045606316807458</v>
       </c>
       <c r="F129" t="n">
-        <v>10.20895980748044</v>
+        <v>10.81076659070647</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1502986743866229</v>
+        <v>0.1516300458673324</v>
       </c>
       <c r="H129" t="n">
-        <v>9.676194706928118</v>
+        <v>11.89272810421626</v>
       </c>
       <c r="I129" t="n">
-        <v>0.06864368765513534</v>
+        <v>0.001699225291095375</v>
       </c>
       <c r="J129" t="n">
-        <v>9.676194706928118</v>
+        <v>11.89272810421626</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3612107496060285</v>
+        <v>0.0918390349356709</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.709734528440748</v>
+        <v>11.9496003448027</v>
       </c>
       <c r="C130" t="n">
-        <v>0.07984960392704069</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D130" t="n">
-        <v>10.24276187347</v>
+        <v>10.85924320120409</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004894652980591052</v>
+        <v>0.01824683207815667</v>
       </c>
       <c r="F130" t="n">
-        <v>10.24276187347</v>
+        <v>10.85924320120409</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1396536117616574</v>
+        <v>0.1448987026658224</v>
       </c>
       <c r="H130" t="n">
-        <v>9.709734528440748</v>
+        <v>11.9496003448027</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05981818683043584</v>
+        <v>0.001451338890550165</v>
       </c>
       <c r="J130" t="n">
-        <v>9.709734528440748</v>
+        <v>11.9496003448027</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3566938112725554</v>
+        <v>0.08737366380821238</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.743274349953381</v>
+        <v>12.00647258538913</v>
       </c>
       <c r="C131" t="n">
-        <v>0.07639058495857309</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D131" t="n">
-        <v>10.27656393945956</v>
+        <v>10.90771981170172</v>
       </c>
       <c r="E131" t="n">
-        <v>0.004188708826043214</v>
+        <v>0.01621653529973239</v>
       </c>
       <c r="F131" t="n">
-        <v>10.27656393945956</v>
+        <v>10.90771981170172</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1293407980654741</v>
+        <v>0.1382264574140822</v>
       </c>
       <c r="H131" t="n">
-        <v>9.743274349953381</v>
+        <v>12.00647258538913</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05182230196241513</v>
+        <v>0.001235086359423048</v>
       </c>
       <c r="J131" t="n">
-        <v>9.743274349953381</v>
+        <v>12.00647258538913</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3512970552059458</v>
+        <v>0.0829843788584182</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.776814171466011</v>
+        <v>12.06334482597557</v>
       </c>
       <c r="C132" t="n">
-        <v>0.07320971414251667</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D132" t="n">
-        <v>10.31036600544912</v>
+        <v>10.95619642219935</v>
       </c>
       <c r="E132" t="n">
-        <v>0.003588857909221576</v>
+        <v>0.01436365863583345</v>
       </c>
       <c r="F132" t="n">
-        <v>10.31036600544912</v>
+        <v>10.95619642219935</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1194523395794919</v>
+        <v>0.1316480873059309</v>
       </c>
       <c r="H132" t="n">
-        <v>9.776814171466011</v>
+        <v>12.06334482597557</v>
       </c>
       <c r="I132" t="n">
-        <v>0.04462498221219649</v>
+        <v>0.001045568707609314</v>
       </c>
       <c r="J132" t="n">
-        <v>9.776814171466011</v>
+        <v>12.06334482597557</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3449853310714276</v>
+        <v>0.0786746343346309</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9.810353992978644</v>
+        <v>12.12021706656201</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07029458871967884</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D133" t="n">
-        <v>10.34416807143868</v>
+        <v>11.00467303269697</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00309435648574359</v>
+        <v>0.01267155759844347</v>
       </c>
       <c r="F133" t="n">
-        <v>10.34416807143868</v>
+        <v>11.00467303269697</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1100585514732822</v>
+        <v>0.1251933555105282</v>
       </c>
       <c r="H133" t="n">
-        <v>9.810353992978644</v>
+        <v>12.12021706656201</v>
       </c>
       <c r="I133" t="n">
-        <v>0.03820469396077403</v>
+        <v>0.0008788940018548013</v>
       </c>
       <c r="J133" t="n">
-        <v>9.810353992978644</v>
+        <v>12.12021706656201</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3378742231643402</v>
+        <v>0.07442819152841815</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9.843893814491276</v>
+        <v>12.17708930714845</v>
       </c>
       <c r="C134" t="n">
-        <v>0.06760600520820047</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D134" t="n">
-        <v>10.37797013742824</v>
+        <v>11.0531496431946</v>
       </c>
       <c r="E134" t="n">
-        <v>0.002687824603967388</v>
+        <v>0.01113993544981369</v>
       </c>
       <c r="F134" t="n">
-        <v>10.37797013742824</v>
+        <v>11.0531496431946</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1012290514053452</v>
+        <v>0.1189060921963718</v>
       </c>
       <c r="H134" t="n">
-        <v>9.843893814491276</v>
+        <v>12.17708930714845</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03253323095665037</v>
+        <v>0.0007382234962019212</v>
       </c>
       <c r="J134" t="n">
-        <v>9.843893814491276</v>
+        <v>12.17708930714845</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3300072515653892</v>
+        <v>0.07025852570362598</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.877433636003907</v>
+        <v>12.23396154773489</v>
       </c>
       <c r="C135" t="n">
-        <v>0.06511890747792629</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D135" t="n">
-        <v>10.4117722034178</v>
+        <v>11.10162625369222</v>
       </c>
       <c r="E135" t="n">
-        <v>0.002356616584558755</v>
+        <v>0.009758779434849443</v>
       </c>
       <c r="F135" t="n">
-        <v>10.4117722034178</v>
+        <v>11.10162625369222</v>
       </c>
       <c r="G135" t="n">
-        <v>0.09298072886022243</v>
+        <v>0.1127956892389898</v>
       </c>
       <c r="H135" t="n">
-        <v>9.877433636003907</v>
+        <v>12.23396154773489</v>
       </c>
       <c r="I135" t="n">
-        <v>0.02753737869513324</v>
+        <v>0.0006160097705221838</v>
       </c>
       <c r="J135" t="n">
-        <v>9.877433636003907</v>
+        <v>12.23396154773489</v>
       </c>
       <c r="K135" t="n">
-        <v>0.321408581217505</v>
+        <v>0.06616151047154346</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.910973457516539</v>
+        <v>12.29083378832133</v>
       </c>
       <c r="C136" t="n">
-        <v>0.06280382362676942</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D136" t="n">
-        <v>10.44557426940736</v>
+        <v>11.15010286418985</v>
       </c>
       <c r="E136" t="n">
-        <v>0.002092473251313672</v>
+        <v>0.008511144688568728</v>
       </c>
       <c r="F136" t="n">
-        <v>10.44557426940736</v>
+        <v>11.15010286418985</v>
       </c>
       <c r="G136" t="n">
-        <v>0.08537766115912997</v>
+        <v>0.106895001199525</v>
       </c>
       <c r="H136" t="n">
-        <v>9.910973457516539</v>
+        <v>12.29083378832133</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0231880307243358</v>
+        <v>0.0005160870719445034</v>
       </c>
       <c r="J136" t="n">
-        <v>9.910973457516539</v>
+        <v>12.29083378832133</v>
       </c>
       <c r="K136" t="n">
-        <v>0.312190887883797</v>
+        <v>0.06213689660958432</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9.94451327902917</v>
+        <v>12.34770602890777</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06062752341775988</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D137" t="n">
-        <v>10.47937633539692</v>
+        <v>11.19857947468748</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001876307525355854</v>
+        <v>0.007403078826278656</v>
       </c>
       <c r="F137" t="n">
-        <v>10.47937633539692</v>
+        <v>11.19857947468748</v>
       </c>
       <c r="G137" t="n">
-        <v>0.07836367662932513</v>
+        <v>0.1012339965265951</v>
       </c>
       <c r="H137" t="n">
-        <v>9.94451327902917</v>
+        <v>12.34770602890777</v>
       </c>
       <c r="I137" t="n">
-        <v>0.01943634236253357</v>
+        <v>0.0004296599257014997</v>
       </c>
       <c r="J137" t="n">
-        <v>9.94451327902917</v>
+        <v>12.34770602890777</v>
       </c>
       <c r="K137" t="n">
-        <v>0.3024148528199797</v>
+        <v>0.05820808280320468</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.978053100541803</v>
+        <v>12.40457826949421</v>
       </c>
       <c r="C138" t="n">
-        <v>0.05855430167502688</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D138" t="n">
-        <v>10.51317840138648</v>
+        <v>11.2470560851851</v>
       </c>
       <c r="E138" t="n">
-        <v>0.001698644989460806</v>
+        <v>0.006414416438919344</v>
       </c>
       <c r="F138" t="n">
-        <v>10.51317840138648</v>
+        <v>11.2470560851851</v>
       </c>
       <c r="G138" t="n">
-        <v>0.07198510282362042</v>
+        <v>0.09582088573569043</v>
       </c>
       <c r="H138" t="n">
-        <v>9.978053100541803</v>
+        <v>12.40457826949421</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01620751667121795</v>
+        <v>0.0003572692435666074</v>
       </c>
       <c r="J138" t="n">
-        <v>9.978053100541803</v>
+        <v>12.40457826949421</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2921493065069821</v>
+        <v>0.05436670477735765</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>10.01159292205443</v>
+        <v>12.46145051008065</v>
       </c>
       <c r="C139" t="n">
-        <v>0.05655052658038383</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D139" t="n">
-        <v>10.54698046737604</v>
+        <v>11.29553269568273</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001546055895784598</v>
+        <v>0.00554538734407919</v>
       </c>
       <c r="F139" t="n">
-        <v>10.54698046737604</v>
+        <v>11.29553269568273</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06619423270642481</v>
+        <v>0.0906739161664569</v>
       </c>
       <c r="H139" t="n">
-        <v>10.01159292205443</v>
+        <v>12.46145051008065</v>
       </c>
       <c r="I139" t="n">
-        <v>0.01345039486355815</v>
+        <v>0.0002978433877060171</v>
       </c>
       <c r="J139" t="n">
-        <v>10.01159292205443</v>
+        <v>12.46145051008065</v>
       </c>
       <c r="K139" t="n">
-        <v>0.281439649815135</v>
+        <v>0.05063708731607733</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>10.04513274356707</v>
+        <v>12.51832275066708</v>
       </c>
       <c r="C140" t="n">
-        <v>0.05457401834804933</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D140" t="n">
-        <v>10.5807825333656</v>
+        <v>11.34400930618036</v>
       </c>
       <c r="E140" t="n">
-        <v>0.001412867207067425</v>
+        <v>0.004783110548517004</v>
       </c>
       <c r="F140" t="n">
-        <v>10.5807825333656</v>
+        <v>11.34400930618036</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06093827639766071</v>
+        <v>0.08578477198539518</v>
       </c>
       <c r="H140" t="n">
-        <v>10.04513274356707</v>
+        <v>12.51832275066708</v>
       </c>
       <c r="I140" t="n">
-        <v>0.01112052825020759</v>
+        <v>0.0002501506048935813</v>
       </c>
       <c r="J140" t="n">
-        <v>10.04513274356707</v>
+        <v>12.51832275066708</v>
       </c>
       <c r="K140" t="n">
-        <v>0.270387408990928</v>
+        <v>0.04702211524582826</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10.0786725650797</v>
+        <v>12.57519499125352</v>
       </c>
       <c r="C141" t="n">
-        <v>0.05259401130794148</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D141" t="n">
-        <v>10.61458459935516</v>
+        <v>11.39248591667798</v>
       </c>
       <c r="E141" t="n">
-        <v>0.001291560354828299</v>
+        <v>0.004113882010408568</v>
       </c>
       <c r="F141" t="n">
-        <v>10.61458459935516</v>
+        <v>11.39248591667798</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0562215069957783</v>
+        <v>0.0811814767843939</v>
       </c>
       <c r="H141" t="n">
-        <v>10.0786725650797</v>
+        <v>12.57519499125352</v>
       </c>
       <c r="I141" t="n">
-        <v>0.009153921002399507</v>
+        <v>0.0002131825677345354</v>
       </c>
       <c r="J141" t="n">
-        <v>10.0786725650797</v>
+        <v>12.57519499125352</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2590321631880508</v>
+        <v>0.04353522850102524</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>10.11221238659233</v>
+        <v>12.63206723183996</v>
       </c>
       <c r="C142" t="n">
-        <v>0.05058855993699891</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D142" t="n">
-        <v>10.64838666534472</v>
+        <v>11.44096252717561</v>
       </c>
       <c r="E142" t="n">
-        <v>0.001177730777627046</v>
+        <v>0.003528502670824932</v>
       </c>
       <c r="F142" t="n">
-        <v>10.64838666534472</v>
+        <v>11.44096252717561</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05195697646616382</v>
+        <v>0.07682832566987481</v>
       </c>
       <c r="H142" t="n">
-        <v>10.11221238659233</v>
+        <v>12.63206723183996</v>
       </c>
       <c r="I142" t="n">
-        <v>0.007501770640034746</v>
+        <v>0.0001846968574292621</v>
       </c>
       <c r="J142" t="n">
-        <v>10.11221238659233</v>
+        <v>12.63206723183996</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2474150977114259</v>
+        <v>0.04018737450900627</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10.14575220810496</v>
+        <v>12.6889394724264</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04854459797892176</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D143" t="n">
-        <v>10.68218873133428</v>
+        <v>11.48943913767324</v>
       </c>
       <c r="E143" t="n">
-        <v>0.001069166223601897</v>
+        <v>0.003028063376040119</v>
       </c>
       <c r="F143" t="n">
-        <v>10.68218873133428</v>
+        <v>11.48943913767324</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04812665087400807</v>
+        <v>0.07272699272160678</v>
       </c>
       <c r="H143" t="n">
-        <v>10.14575220810496</v>
+        <v>12.6889394724264</v>
       </c>
       <c r="I143" t="n">
-        <v>0.006133282697475423</v>
+        <v>0.0001639400840980756</v>
       </c>
       <c r="J143" t="n">
-        <v>10.14575220810496</v>
+        <v>12.6889394724264</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2356312521167903</v>
+        <v>0.03698898542820942</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>10.17929202961759</v>
+        <v>12.74581171301284</v>
       </c>
       <c r="C144" t="n">
-        <v>0.04645912371641965</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D144" t="n">
-        <v>10.71599079732384</v>
+        <v>11.53791574817086</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0009689676252950932</v>
+        <v>0.002591192034669112</v>
       </c>
       <c r="F144" t="n">
-        <v>10.71599079732384</v>
+        <v>11.53791574817086</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04465587454513798</v>
+        <v>0.0688660176973136</v>
       </c>
       <c r="H144" t="n">
-        <v>10.17929202961759</v>
+        <v>12.74581171301284</v>
       </c>
       <c r="I144" t="n">
-        <v>0.005004384625634609</v>
+        <v>0.0001485351365415086</v>
       </c>
       <c r="J144" t="n">
-        <v>10.17929202961759</v>
+        <v>12.74581171301284</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2237104182544278</v>
+        <v>0.03395399506660142</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10.21283185113023</v>
+        <v>12.80268395359928</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04433939914709082</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D145" t="n">
-        <v>10.7497928633134</v>
+        <v>11.58639235866849</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0008723840816526714</v>
+        <v>0.002217145128169747</v>
       </c>
       <c r="F145" t="n">
-        <v>10.7497928633134</v>
+        <v>11.58639235866849</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04152223485670115</v>
+        <v>0.06522641769367798</v>
       </c>
       <c r="H145" t="n">
-        <v>10.21283185113023</v>
+        <v>12.80268395359928</v>
       </c>
       <c r="I145" t="n">
-        <v>0.004072340970613104</v>
+        <v>0.0001380285219035809</v>
       </c>
       <c r="J145" t="n">
-        <v>10.21283185113023</v>
+        <v>12.80268395359928</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2117223975656436</v>
+        <v>0.0310795633925887</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10.24637167264286</v>
+        <v>12.85955619418572</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04220469097398896</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D146" t="n">
-        <v>10.78359492930296</v>
+        <v>11.63486896916611</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0007780485925835388</v>
+        <v>0.001894734386091773</v>
       </c>
       <c r="F146" t="n">
-        <v>10.78359492930296</v>
+        <v>11.63486896916611</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03866488302039267</v>
+        <v>0.06179720430307303</v>
       </c>
       <c r="H146" t="n">
-        <v>10.24637167264286</v>
+        <v>12.85955619418572</v>
       </c>
       <c r="I146" t="n">
-        <v>0.003310245448047708</v>
+        <v>0.000130550173914646</v>
       </c>
       <c r="J146" t="n">
-        <v>10.24637167264286</v>
+        <v>12.85955619418572</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1997317158582015</v>
+        <v>0.0283883135874685</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10.27991149415549</v>
+        <v>12.91642843477215</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04008643729186209</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D147" t="n">
-        <v>10.81739699529252</v>
+        <v>11.68334557966374</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0006875249233463194</v>
+        <v>0.001613687321319736</v>
       </c>
       <c r="F147" t="n">
-        <v>10.81739699529252</v>
+        <v>11.68334557966374</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03605146206945516</v>
+        <v>0.05853853791078741</v>
       </c>
       <c r="H147" t="n">
-        <v>10.27991149415549</v>
+        <v>12.91642843477215</v>
       </c>
       <c r="I147" t="n">
-        <v>0.002688216940875835</v>
+        <v>0.0001256973800832123</v>
       </c>
       <c r="J147" t="n">
-        <v>10.27991149415549</v>
+        <v>12.91642843477215</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1878112809748762</v>
+        <v>0.02586787628017738</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10.31345131566812</v>
+        <v>12.97330067535859</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0380185706154406</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D148" t="n">
-        <v>10.85119906128208</v>
+        <v>11.73182219016137</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0006023152417659682</v>
+        <v>0.001372985337832772</v>
       </c>
       <c r="F148" t="n">
-        <v>10.85119906128208</v>
+        <v>11.73182219016137</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03366360423734573</v>
+        <v>0.05545137825391837</v>
       </c>
       <c r="H148" t="n">
-        <v>10.31345131566812</v>
+        <v>12.97330067535859</v>
       </c>
       <c r="I148" t="n">
-        <v>0.002182858762426651</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J148" t="n">
-        <v>10.31345131566812</v>
+        <v>12.97330067535859</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1760193413404134</v>
+        <v>0.02353640162771358</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>10.34699113718075</v>
+        <v>13.03017291594503</v>
       </c>
       <c r="C149" t="n">
-        <v>0.03603800881118424</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D149" t="n">
-        <v>10.88500112727164</v>
+        <v>11.78029880065899</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0005245190372815126</v>
+        <v>0.001162674336456957</v>
       </c>
       <c r="F149" t="n">
-        <v>10.88500112727164</v>
+        <v>11.78029880065899</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0314371351947268</v>
+        <v>0.05250098833967437</v>
       </c>
       <c r="H149" t="n">
-        <v>10.34699113718075</v>
+        <v>13.03017291594503</v>
       </c>
       <c r="I149" t="n">
-        <v>0.001780793039727659</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J149" t="n">
-        <v>10.34699113718075</v>
+        <v>13.03017291594503</v>
       </c>
       <c r="K149" t="n">
-        <v>0.164429772635016</v>
+        <v>0.02137780118416344</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>10.38053095869338</v>
+        <v>13.08704515653147</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03418161845393584</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D150" t="n">
-        <v>10.9188031932612</v>
+        <v>11.82877541115662</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0004548791319479091</v>
+        <v>0.0009801684367862391</v>
       </c>
       <c r="F150" t="n">
-        <v>10.9188031932612</v>
+        <v>11.82877541115662</v>
       </c>
       <c r="G150" t="n">
-        <v>0.02935549277667608</v>
+        <v>0.04967591406902291</v>
       </c>
       <c r="H150" t="n">
-        <v>10.38053095869338</v>
+        <v>13.08704515653147</v>
       </c>
       <c r="I150" t="n">
-        <v>0.00146653253341382</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J150" t="n">
-        <v>10.38053095869338</v>
+        <v>13.08704515653147</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1531036916156533</v>
+        <v>0.0194031457382178</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>10.41407078020601</v>
+        <v>13.14391739711791</v>
       </c>
       <c r="C151" t="n">
-        <v>0.03248317770558842</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D151" t="n">
-        <v>10.95260525925076</v>
+        <v>11.87725202165425</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0003934630392211533</v>
+        <v>0.0008225245850238045</v>
       </c>
       <c r="F151" t="n">
-        <v>10.95260525925076</v>
+        <v>11.87725202165425</v>
       </c>
       <c r="G151" t="n">
-        <v>0.02739513026101381</v>
+        <v>0.04695309771810147</v>
       </c>
       <c r="H151" t="n">
-        <v>10.41407078020601</v>
+        <v>13.14391739711791</v>
       </c>
       <c r="I151" t="n">
-        <v>0.001215060126319996</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J151" t="n">
-        <v>10.41407078020601</v>
+        <v>13.14391739711791</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421047744706775</v>
+        <v>0.01759527174543647</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.44761060171865</v>
+        <v>13.20078963770435</v>
       </c>
       <c r="C152" t="n">
-        <v>0.03098202995899677</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D152" t="n">
-        <v>10.98640732524032</v>
+        <v>11.92572863215187</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0003403945766114428</v>
+        <v>0.0006864313543562774</v>
       </c>
       <c r="F152" t="n">
-        <v>10.98640732524032</v>
+        <v>11.92572863215187</v>
       </c>
       <c r="G152" t="n">
-        <v>0.02554365807481006</v>
+        <v>0.04432175317526781</v>
       </c>
       <c r="H152" t="n">
-        <v>10.44761060171865</v>
+        <v>13.20078963770435</v>
       </c>
       <c r="I152" t="n">
-        <v>0.001007945515052354</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J152" t="n">
-        <v>10.44761060171865</v>
+        <v>13.20078963770435</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1314831681173134</v>
+        <v>0.015946893434487</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>10.48115042323128</v>
+        <v>13.25766187829079</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0297002836899966</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D153" t="n">
-        <v>11.02020939122988</v>
+        <v>11.9742052426495</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0002963671499989763</v>
+        <v>0.0005701867164456302</v>
       </c>
       <c r="F153" t="n">
-        <v>11.02020939122988</v>
+        <v>11.9742052426495</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02378470526377293</v>
+        <v>0.04178607802599318</v>
       </c>
       <c r="H153" t="n">
-        <v>10.48115042323128</v>
+        <v>13.25766187829079</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0008371066780776576</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J153" t="n">
-        <v>10.48115042323128</v>
+        <v>13.25766187829079</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1212930240816552</v>
+        <v>0.01445297024892743</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>10.51469024474391</v>
+        <v>13.31453411887723</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02863317412640324</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D154" t="n">
-        <v>11.05401145721944</v>
+        <v>12.02268185314712</v>
       </c>
       <c r="E154" t="n">
-        <v>0.000260280965478868</v>
+        <v>0.0004760812129708798</v>
       </c>
       <c r="F154" t="n">
-        <v>11.05401145721944</v>
+        <v>12.02268185314712</v>
       </c>
       <c r="G154" t="n">
-        <v>0.02211288517263621</v>
+        <v>0.03932951966070942</v>
       </c>
       <c r="H154" t="n">
-        <v>10.51469024474391</v>
+        <v>13.31453411887723</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0006985281231469602</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J154" t="n">
-        <v>10.51469024474391</v>
+        <v>13.31453411887723</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1115503702571644</v>
+        <v>0.01309558655305711</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>10.54823006625654</v>
+        <v>13.37140635946367</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02777640835382262</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D155" t="n">
-        <v>11.087813523209</v>
+        <v>12.07115846364475</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0002310073681818826</v>
+        <v>0.0003969544415832083</v>
       </c>
       <c r="F155" t="n">
-        <v>11.087813523209</v>
+        <v>12.07115846364475</v>
       </c>
       <c r="G155" t="n">
-        <v>0.02052459935898945</v>
+        <v>0.03695189757070087</v>
       </c>
       <c r="H155" t="n">
-        <v>10.54823006625654</v>
+        <v>13.37140635946367</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0005842253150921037</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J155" t="n">
-        <v>10.54823006625654</v>
+        <v>13.37140635946367</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1023064576906921</v>
+        <v>0.01187000850746852</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10.58176988776917</v>
+        <v>13.42827860005011</v>
       </c>
       <c r="C156" t="n">
-        <v>0.02711481893422198</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D156" t="n">
-        <v>11.12161558919856</v>
+        <v>12.11963507414238</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0002077409413000024</v>
+        <v>0.0003310421071335985</v>
       </c>
       <c r="F156" t="n">
-        <v>11.12161558919856</v>
+        <v>12.11963507414238</v>
       </c>
       <c r="G156" t="n">
-        <v>0.01901147046576931</v>
+        <v>0.03465300164540525</v>
       </c>
       <c r="H156" t="n">
-        <v>10.58176988776917</v>
+        <v>13.42827860005011</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0004901539252758624</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J156" t="n">
-        <v>10.58176988776917</v>
+        <v>13.42827860005011</v>
       </c>
       <c r="K156" t="n">
-        <v>0.09354668188504492</v>
+        <v>0.01075568258311371</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10.6153097092818</v>
+        <v>13.48515084063654</v>
       </c>
       <c r="C157" t="n">
-        <v>0.02662322620572935</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D157" t="n">
-        <v>11.15541765518812</v>
+        <v>12.16811168464</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0001901619668492975</v>
+        <v>0.000280975388181753</v>
       </c>
       <c r="F157" t="n">
-        <v>11.15541765518812</v>
+        <v>12.16811168464</v>
       </c>
       <c r="G157" t="n">
-        <v>0.01757960878928638</v>
+        <v>0.03243479989911364</v>
       </c>
       <c r="H157" t="n">
-        <v>10.6153097092818</v>
+        <v>13.48515084063654</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0004159501439685653</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J157" t="n">
-        <v>10.6153097092818</v>
+        <v>13.48515084063654</v>
       </c>
       <c r="K157" t="n">
-        <v>0.08529558928432861</v>
+        <v>0.009746855838964799</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>10.64884953079444</v>
+        <v>13.54202308122298</v>
       </c>
       <c r="C158" t="n">
-        <v>0.02626795562315479</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D158" t="n">
-        <v>11.18921972117768</v>
+        <v>12.21658829513763</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0001769011023772824</v>
+        <v>0.000239496489479588</v>
       </c>
       <c r="F158" t="n">
-        <v>11.18921972117768</v>
+        <v>12.21658829513763</v>
       </c>
       <c r="G158" t="n">
-        <v>0.01622805596329838</v>
+        <v>0.03029865166311637</v>
       </c>
       <c r="H158" t="n">
-        <v>10.64884953079444</v>
+        <v>13.54202308122298</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0003611518167178181</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J158" t="n">
-        <v>10.64884953079444</v>
+        <v>13.54202308122298</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07755006171919569</v>
+        <v>0.008831532052937128</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>10.68238935230707</v>
+        <v>13.59889532180942</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02601387213724569</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D159" t="n">
-        <v>11.22302178716724</v>
+        <v>12.26506490563526</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0001669697676877967</v>
+        <v>0.0002064360099108764</v>
       </c>
       <c r="F159" t="n">
-        <v>11.22302178716724</v>
+        <v>12.26506490563526</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01495409033371432</v>
+        <v>0.02824058587548648</v>
       </c>
       <c r="H159" t="n">
-        <v>10.68238935230707</v>
+        <v>13.59889532180942</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0003145871715995857</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J159" t="n">
-        <v>10.68238935230707</v>
+        <v>13.59889532180942</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07028759465290892</v>
+        <v>0.00799831527521367</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>10.7159291738197</v>
+        <v>13.65576756239586</v>
       </c>
       <c r="C160" t="n">
-        <v>0.02580404123702771</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D160" t="n">
-        <v>11.2568238531568</v>
+        <v>12.31354151613288</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0001596859639170884</v>
+        <v>0.0001803041605829919</v>
       </c>
       <c r="F160" t="n">
-        <v>11.2568238531568</v>
+        <v>12.31354151613288</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01374496750166809</v>
+        <v>0.0262714051455457</v>
       </c>
       <c r="H160" t="n">
-        <v>10.7159291738197</v>
+        <v>13.65576756239586</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0002755919748527783</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J160" t="n">
-        <v>10.7159291738197</v>
+        <v>13.65576756239586</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06350035500788512</v>
+        <v>0.007244209720000977</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>10.74946899533233</v>
+        <v>13.7126398029823</v>
       </c>
       <c r="C161" t="n">
-        <v>0.02559147361271166</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D161" t="n">
-        <v>11.29062591914636</v>
+        <v>12.36201812663051</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001596955657768376</v>
       </c>
       <c r="F161" t="n">
-        <v>11.29062591914636</v>
+        <v>12.36201812663051</v>
       </c>
       <c r="G161" t="n">
-        <v>0.01260870514919124</v>
+        <v>0.02437934297310789</v>
       </c>
       <c r="H161" t="n">
-        <v>10.74946899533233</v>
+        <v>13.7126398029823</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0002443619768344026</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J161" t="n">
-        <v>10.74946899533233</v>
+        <v>13.7126398029823</v>
       </c>
       <c r="K161" t="n">
-        <v>0.05718741837412952</v>
+        <v>0.006558019778698594</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>10.78300881684496</v>
+        <v>13.76951204356874</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02533288797099148</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D162" t="n">
-        <v>11.32442798513592</v>
+        <v>12.41049473712814</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001442641546427698</v>
       </c>
       <c r="F162" t="n">
-        <v>11.32442798513592</v>
+        <v>12.41049473712814</v>
       </c>
       <c r="G162" t="n">
-        <v>0.01153969029334306</v>
+        <v>0.0225733164029704</v>
       </c>
       <c r="H162" t="n">
-        <v>10.78300881684496</v>
+        <v>13.76951204356874</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0002188947791390181</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J162" t="n">
-        <v>10.78300881684496</v>
+        <v>13.76951204356874</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0513037882005539</v>
+        <v>0.005935839727952611</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>10.8165486383576</v>
+        <v>13.82638428415517</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02498938430059506</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D163" t="n">
-        <v>11.35823005112548</v>
+        <v>12.45897134762576</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001327421755820959</v>
       </c>
       <c r="F163" t="n">
-        <v>11.35823005112548</v>
+        <v>12.45897134762576</v>
       </c>
       <c r="G163" t="n">
-        <v>0.01053557944739702</v>
+        <v>0.02085030631633418</v>
       </c>
       <c r="H163" t="n">
-        <v>10.8165486383576</v>
+        <v>13.82638428415517</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0001984570647262777</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J163" t="n">
-        <v>10.8165486383576</v>
+        <v>13.82638428415517</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0458432720053377</v>
+        <v>0.005374467415860586</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>10.85008845987022</v>
+        <v>13.88325652474161</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02452844886238083</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D164" t="n">
-        <v>11.39203211711504</v>
+        <v>12.50744795812339</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001241359844574522</v>
       </c>
       <c r="F164" t="n">
-        <v>11.39203211711504</v>
+        <v>12.50744795812339</v>
       </c>
       <c r="G164" t="n">
-        <v>0.009598928392117812</v>
+        <v>0.01921636566334235</v>
       </c>
       <c r="H164" t="n">
-        <v>10.85008845987022</v>
+        <v>13.88325652474161</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0001828051403862598</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J164" t="n">
-        <v>10.85008845987022</v>
+        <v>13.88325652474161</v>
       </c>
       <c r="K164" t="n">
-        <v>0.04080507379964918</v>
+        <v>0.004866612988531871</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>10.88362828138286</v>
+        <v>13.94012876532805</v>
       </c>
       <c r="C165" t="n">
-        <v>0.02392177630507183</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D165" t="n">
-        <v>11.4258341831046</v>
+        <v>12.55592456862101</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001180826817126163</v>
       </c>
       <c r="F165" t="n">
-        <v>11.4258341831046</v>
+        <v>12.55592456862101</v>
       </c>
       <c r="G165" t="n">
-        <v>0.008726741455732951</v>
+        <v>0.0176575099096682</v>
       </c>
       <c r="H165" t="n">
-        <v>10.88362828138286</v>
+        <v>13.94012876532805</v>
       </c>
       <c r="I165" t="n">
-        <v>0.000170835118017026</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J165" t="n">
-        <v>10.88362828138286</v>
+        <v>13.94012876532805</v>
       </c>
       <c r="K165" t="n">
-        <v>0.03614524344695402</v>
+        <v>0.004409314772161312</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>10.91716810289549</v>
+        <v>13.99700100591449</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02314214362103058</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D166" t="n">
-        <v>11.45963624909416</v>
+        <v>12.60440117911864</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001138093358567956</v>
       </c>
       <c r="F166" t="n">
-        <v>11.45963624909416</v>
+        <v>12.60440117911864</v>
       </c>
       <c r="G166" t="n">
-        <v>0.007913611839998688</v>
+        <v>0.01617092592430733</v>
       </c>
       <c r="H166" t="n">
-        <v>10.91716810289549</v>
+        <v>13.99700100591449</v>
       </c>
       <c r="I166" t="n">
-        <v>0.0001617070795759541</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J166" t="n">
-        <v>10.91716810289549</v>
+        <v>13.99700100591449</v>
       </c>
       <c r="K166" t="n">
-        <v>0.03185553244871862</v>
+        <v>0.003994883593059597</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>10.95070792440812</v>
+        <v>14.05387324650093</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02219949557589193</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D167" t="n">
-        <v>11.49343831508372</v>
+        <v>12.65287778961627</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F167" t="n">
-        <v>11.49343831508372</v>
+        <v>12.65287778961627</v>
       </c>
       <c r="G167" t="n">
-        <v>0.007158571070199756</v>
+        <v>0.01476752759061848</v>
       </c>
       <c r="H167" t="n">
-        <v>10.95070792440812</v>
+        <v>14.05387324650093</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0001549865466952073</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J167" t="n">
-        <v>10.95070792440812</v>
+        <v>14.05387324650093</v>
       </c>
       <c r="K167" t="n">
-        <v>0.02793886510765099</v>
+        <v>0.003621879617234688</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>10.98424774592075</v>
+        <v>14.11074548708737</v>
       </c>
       <c r="C168" t="n">
-        <v>0.02109943057877613</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D168" t="n">
-        <v>11.52724038107328</v>
+        <v>12.70135440011389</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F168" t="n">
-        <v>11.52724038107328</v>
+        <v>12.70135440011389</v>
       </c>
       <c r="G168" t="n">
-        <v>0.006460653889026649</v>
+        <v>0.01343657457564637</v>
       </c>
       <c r="H168" t="n">
-        <v>10.98424774592075</v>
+        <v>14.11074548708737</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0001502340447481769</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J168" t="n">
-        <v>10.98424774592075</v>
+        <v>14.11074548708737</v>
       </c>
       <c r="K168" t="n">
-        <v>0.02436227104369626</v>
+        <v>0.003285575899024255</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>11.01778756743338</v>
+        <v>14.16761772767381</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01985589062428441</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D169" t="n">
-        <v>11.56104244706284</v>
+        <v>12.74983101061152</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F169" t="n">
-        <v>11.56104244706284</v>
+        <v>12.74983101061152</v>
       </c>
       <c r="G169" t="n">
-        <v>0.005813912870702435</v>
+        <v>0.01218042795795957</v>
       </c>
       <c r="H169" t="n">
-        <v>11.01778756743338</v>
+        <v>14.16761772767381</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0001467980801088593</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J169" t="n">
-        <v>11.01778756743338</v>
+        <v>14.16761772767381</v>
       </c>
       <c r="K169" t="n">
-        <v>0.02111912919492089</v>
+        <v>0.00298210773835078</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.05132738894602</v>
+        <v>14.22448996826025</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0184899415156903</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D170" t="n">
-        <v>11.5948445130524</v>
+        <v>12.79830762110915</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F170" t="n">
-        <v>11.5948445130524</v>
+        <v>12.79830762110915</v>
       </c>
       <c r="G170" t="n">
-        <v>0.005216114010602543</v>
+        <v>0.01099266385504929</v>
       </c>
       <c r="H170" t="n">
-        <v>11.05132738894602</v>
+        <v>14.22448996826025</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J170" t="n">
-        <v>11.05132738894602</v>
+        <v>14.22448996826025</v>
       </c>
       <c r="K170" t="n">
-        <v>0.01820365698666648</v>
+        <v>0.002708077507317968</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.08486721045865</v>
+        <v>14.28136220884669</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01702823255150923</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D171" t="n">
-        <v>11.62864657904196</v>
+        <v>12.84678423160677</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F171" t="n">
-        <v>11.62864657904196</v>
+        <v>12.84678423160677</v>
       </c>
       <c r="G171" t="n">
-        <v>0.004667074801978946</v>
+        <v>0.00988499127972526</v>
       </c>
       <c r="H171" t="n">
-        <v>11.08486721045865</v>
+        <v>14.28136220884669</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J171" t="n">
-        <v>11.08486721045865</v>
+        <v>14.28136220884669</v>
       </c>
       <c r="K171" t="n">
-        <v>0.01558936641692715</v>
+        <v>0.00245747962273674</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.11840703197128</v>
+        <v>14.33823444943312</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01549920099606622</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D172" t="n">
-        <v>11.66244864503152</v>
+        <v>12.8952608421044</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F172" t="n">
-        <v>11.66244864503152</v>
+        <v>12.8952608421044</v>
       </c>
       <c r="G172" t="n">
-        <v>0.004161898183281188</v>
+        <v>0.008845317226351946</v>
       </c>
       <c r="H172" t="n">
-        <v>11.11840703197128</v>
+        <v>14.33823444943312</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J172" t="n">
-        <v>11.11840703197128</v>
+        <v>14.33823444943312</v>
       </c>
       <c r="K172" t="n">
-        <v>0.01325922272580271</v>
+        <v>0.002229412531858551</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>11.15194685348391</v>
+        <v>14.39510669001956</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01394110665005638</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D173" t="n">
-        <v>11.69625071102108</v>
+        <v>12.94373745260202</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F173" t="n">
-        <v>11.69625071102108</v>
+        <v>12.94373745260202</v>
       </c>
       <c r="G173" t="n">
-        <v>0.003698600849424379</v>
+        <v>0.007878734148148155</v>
       </c>
       <c r="H173" t="n">
-        <v>11.15194685348391</v>
+        <v>14.39510669001956</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J173" t="n">
-        <v>11.15194685348391</v>
+        <v>14.39510669001956</v>
       </c>
       <c r="K173" t="n">
-        <v>0.01120059528684441</v>
+        <v>0.002018503788501046</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>11.18548667499654</v>
+        <v>14.451978930606</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0123893084884172</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D174" t="n">
-        <v>11.73005277701064</v>
+        <v>12.99221406309965</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F174" t="n">
-        <v>11.73005277701064</v>
+        <v>12.99221406309965</v>
       </c>
       <c r="G174" t="n">
-        <v>0.003275892564599692</v>
+        <v>0.00698135974789318</v>
       </c>
       <c r="H174" t="n">
-        <v>11.18548667499654</v>
+        <v>14.451978930606</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J174" t="n">
-        <v>11.18548667499654</v>
+        <v>14.451978930606</v>
       </c>
       <c r="K174" t="n">
-        <v>0.009399815068552713</v>
+        <v>0.001822853624224025</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.21902649650917</v>
+        <v>14.50885117119244</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01087413452996441</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D175" t="n">
-        <v>11.7638548430002</v>
+        <v>13.04069067359728</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F175" t="n">
-        <v>11.7638548430002</v>
+        <v>13.04069067359728</v>
       </c>
       <c r="G175" t="n">
-        <v>0.002895162459570238</v>
+        <v>0.006157928033899984</v>
       </c>
       <c r="H175" t="n">
-        <v>11.21902649650917</v>
+        <v>14.50885117119244</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J175" t="n">
-        <v>11.21902649650917</v>
+        <v>14.50885117119244</v>
       </c>
       <c r="K175" t="n">
-        <v>0.007831672660907084</v>
+        <v>0.001640022927921018</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>11.25256631802181</v>
+        <v>14.56572341177888</v>
       </c>
       <c r="C176" t="n">
-        <v>0.009422612819533018</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D176" t="n">
-        <v>11.79765690898976</v>
+        <v>13.0891672840949</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F176" t="n">
-        <v>11.79765690898976</v>
+        <v>13.0891672840949</v>
       </c>
       <c r="G176" t="n">
-        <v>0.002554574162839771</v>
+        <v>0.00540073163022488</v>
       </c>
       <c r="H176" t="n">
-        <v>11.25256631802181</v>
+        <v>14.56572341177888</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J176" t="n">
-        <v>11.25256631802181</v>
+        <v>14.56572341177888</v>
       </c>
       <c r="K176" t="n">
-        <v>0.006477842361678583</v>
+        <v>0.001471408236678671</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>11.28610613953444</v>
+        <v>14.62259565236532</v>
       </c>
       <c r="C177" t="n">
-        <v>0.008057467188587266</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D177" t="n">
-        <v>11.83145897497932</v>
+        <v>13.13764389459253</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F177" t="n">
-        <v>11.83145897497932</v>
+        <v>13.13764389459253</v>
       </c>
       <c r="G177" t="n">
-        <v>0.00224532216402248</v>
+        <v>0.004710398230689254</v>
       </c>
       <c r="H177" t="n">
-        <v>11.28610613953444</v>
+        <v>14.62259565236532</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J177" t="n">
-        <v>11.28610613953444</v>
+        <v>14.62259565236532</v>
       </c>
       <c r="K177" t="n">
-        <v>0.005320915979905143</v>
+        <v>0.00131348676275606</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>11.31964596104707</v>
+        <v>14.67946789295176</v>
       </c>
       <c r="C178" t="n">
-        <v>0.006796462764698449</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D178" t="n">
-        <v>11.86526104096888</v>
+        <v>13.18612050509016</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F178" t="n">
-        <v>11.86526104096888</v>
+        <v>13.18612050509016</v>
       </c>
       <c r="G178" t="n">
-        <v>0.001966159747850206</v>
+        <v>0.004084842987871704</v>
       </c>
       <c r="H178" t="n">
-        <v>11.31964596104707</v>
+        <v>14.67946789295176</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J178" t="n">
-        <v>11.31964596104707</v>
+        <v>14.67946789295176</v>
       </c>
       <c r="K178" t="n">
-        <v>0.004339752672068844</v>
+        <v>0.001165126050421118</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.3531857825597</v>
+        <v>14.7363401335382</v>
       </c>
       <c r="C179" t="n">
-        <v>0.005665407682395477</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D179" t="n">
-        <v>11.89906310695844</v>
+        <v>13.23459711558778</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F179" t="n">
-        <v>11.89906310695844</v>
+        <v>13.23459711558778</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001715652325987252</v>
+        <v>0.003521383628056365</v>
       </c>
       <c r="H179" t="n">
-        <v>11.3531857825597</v>
+        <v>14.7363401335382</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J179" t="n">
-        <v>11.3531857825597</v>
+        <v>14.7363401335382</v>
       </c>
       <c r="K179" t="n">
-        <v>0.003514961581407341</v>
+        <v>0.001026882141551175</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>11.38672560407233</v>
+        <v>14.79321237412464</v>
       </c>
       <c r="C180" t="n">
-        <v>0.004659794588081792</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D180" t="n">
-        <v>11.932865172948</v>
+        <v>13.28307372608541</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F180" t="n">
-        <v>11.932865172948</v>
+        <v>13.28307372608541</v>
       </c>
       <c r="G180" t="n">
-        <v>0.001492211780424756</v>
+        <v>0.00301529050466664</v>
       </c>
       <c r="H180" t="n">
-        <v>11.38672560407233</v>
+        <v>14.79321237412464</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J180" t="n">
-        <v>11.38672560407233</v>
+        <v>14.79321237412464</v>
       </c>
       <c r="K180" t="n">
-        <v>0.002824400070164821</v>
+        <v>0.000900734259563171</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.42026542558497</v>
+        <v>14.85008461471108</v>
       </c>
       <c r="C181" t="n">
-        <v>0.003779766548239607</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D181" t="n">
-        <v>11.96666723893756</v>
+        <v>13.33155033658304</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F181" t="n">
-        <v>11.96666723893756</v>
+        <v>13.33155033658304</v>
       </c>
       <c r="G181" t="n">
-        <v>0.001294132033287958</v>
+        <v>0.002563839171573675</v>
       </c>
       <c r="H181" t="n">
-        <v>11.42026542558497</v>
+        <v>14.85008461471108</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J181" t="n">
-        <v>11.42026542558497</v>
+        <v>14.85008461471108</v>
       </c>
       <c r="K181" t="n">
-        <v>0.002250395660454751</v>
+        <v>0.0007851162103437834</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>11.4538052470976</v>
+        <v>14.90695685529751</v>
       </c>
       <c r="C182" t="n">
-        <v>0.003022358738641081</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D182" t="n">
-        <v>12.00046930492712</v>
+        <v>13.38002694708066</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F182" t="n">
-        <v>12.00046930492712</v>
+        <v>13.38002694708066</v>
       </c>
       <c r="G182" t="n">
-        <v>0.001119624630943551</v>
+        <v>0.002167985228338665</v>
       </c>
       <c r="H182" t="n">
-        <v>11.4538052470976</v>
+        <v>14.90695685529751</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J182" t="n">
-        <v>11.4538052470976</v>
+        <v>14.90695685529751</v>
       </c>
       <c r="K182" t="n">
-        <v>0.001783166874422734</v>
+        <v>0.0006797092243892921</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>11.48734506861023</v>
+        <v>14.96382909588395</v>
       </c>
       <c r="C183" t="n">
-        <v>0.002381254575756977</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D183" t="n">
-        <v>12.03427137091668</v>
+        <v>13.42850355757829</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F183" t="n">
-        <v>12.03427137091668</v>
+        <v>13.42850355757829</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0009668532559526856</v>
+        <v>0.001820424812220021</v>
       </c>
       <c r="H183" t="n">
-        <v>11.48734506861023</v>
+        <v>14.96382909588395</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J183" t="n">
-        <v>11.48734506861023</v>
+        <v>14.96382909588395</v>
       </c>
       <c r="K183" t="n">
-        <v>0.001401477990214175</v>
+        <v>0.0005850004821495971</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11.52088489012286</v>
+        <v>15.02070133647039</v>
       </c>
       <c r="C184" t="n">
-        <v>0.001847604299303075</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D184" t="n">
-        <v>12.06807343690624</v>
+        <v>13.47698016807591</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F184" t="n">
-        <v>12.06807343690624</v>
+        <v>13.47698016807591</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0008339662388920173</v>
+        <v>0.001517366364182833</v>
       </c>
       <c r="H184" t="n">
-        <v>11.52088489012286</v>
+        <v>15.02070133647039</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J184" t="n">
-        <v>11.52088489012286</v>
+        <v>15.02070133647039</v>
       </c>
       <c r="K184" t="n">
-        <v>0.001092017044329729</v>
+        <v>0.0005008148983599442</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>11.55442471163549</v>
+        <v>15.07757357705683</v>
       </c>
       <c r="C185" t="n">
-        <v>0.001413670421566509</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D185" t="n">
-        <v>12.1018755028958</v>
+        <v>13.52545677857354</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F185" t="n">
-        <v>12.1018755028958</v>
+        <v>13.52545677857354</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0007191263198110651</v>
+        <v>0.00125417640390208</v>
       </c>
       <c r="H185" t="n">
-        <v>11.55442471163549</v>
+        <v>15.07757357705683</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J185" t="n">
-        <v>11.55442471163549</v>
+        <v>15.07757357705683</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0008487812397100827</v>
+        <v>0.0004265679644609721</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>11.58796453314812</v>
+        <v>15.13444581764327</v>
       </c>
       <c r="C186" t="n">
-        <v>0.001070495820080653</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D186" t="n">
-        <v>12.13567756888536</v>
+        <v>13.57393338907117</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F186" t="n">
-        <v>12.13567756888536</v>
+        <v>13.57393338907117</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0006205370939699605</v>
+        <v>0.001035084033365738</v>
       </c>
       <c r="H186" t="n">
-        <v>11.58796453314812</v>
+        <v>15.13444581764327</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J186" t="n">
-        <v>11.58796453314812</v>
+        <v>15.13444581764327</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0006547722493102333</v>
+        <v>0.0003618689909669081</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>11.62150435466075</v>
+        <v>15.19131805822971</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0007985342596472148</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D187" t="n">
-        <v>12.16947963487492</v>
+        <v>13.62240999956879</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F187" t="n">
-        <v>12.16947963487492</v>
+        <v>13.62240999956879</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0005364657584464216</v>
+        <v>0.0008490807581787965</v>
       </c>
       <c r="H187" t="n">
-        <v>11.62150435466075</v>
+        <v>15.19131805822971</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J187" t="n">
-        <v>11.62150435466075</v>
+        <v>15.19131805822971</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0005020782367287886</v>
+        <v>0.0003066395356295041</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11.65504417617339</v>
+        <v>15.24819029881614</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0005864889748512346</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D188" t="n">
-        <v>12.20328170086448</v>
+        <v>13.67088661006642</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F188" t="n">
-        <v>12.20328170086448</v>
+        <v>13.67088661006642</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0004652619475041257</v>
+        <v>0.0006917687334741783</v>
       </c>
       <c r="H188" t="n">
-        <v>11.65504417617339</v>
+        <v>15.24819029881614</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J188" t="n">
-        <v>11.65504417617339</v>
+        <v>15.24819029881614</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0003883496103744514</v>
+        <v>0.0002596531144550151</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>11.68858399768602</v>
+        <v>15.30506253940258</v>
       </c>
       <c r="C189" t="n">
-        <v>0.000423868999000323</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D189" t="n">
-        <v>12.23708376685404</v>
+        <v>13.71936322056404</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F189" t="n">
-        <v>12.23708376685404</v>
+        <v>13.71936322056404</v>
       </c>
       <c r="G189" t="n">
-        <v>0.000405372599821152</v>
+        <v>0.000559933443999624</v>
       </c>
       <c r="H189" t="n">
-        <v>11.68858399768602</v>
+        <v>15.30506253940258</v>
       </c>
       <c r="I189" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J189" t="n">
-        <v>11.68858399768602</v>
+        <v>15.30506253940258</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0003062245508567708</v>
+        <v>0.0002201128193918331</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.72212381919865</v>
+        <v>15.36193477998902</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0003012359380607126</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D190" t="n">
-        <v>12.2708858328436</v>
+        <v>13.76783983106167</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F190" t="n">
-        <v>12.2708858328436</v>
+        <v>13.76783983106167</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0003553529362995442</v>
+        <v>0.0004543050662944002</v>
       </c>
       <c r="H190" t="n">
-        <v>11.72212381919865</v>
+        <v>15.36193477998902</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J190" t="n">
-        <v>11.72212381919865</v>
+        <v>15.36193477998902</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0002430935025130318</v>
+        <v>0.0001872967026458309</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11.75566364071128</v>
+        <v>15.41880702057546</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002103374611527748</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D191" t="n">
-        <v>12.30468789883316</v>
+        <v>13.8163164415593</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F191" t="n">
-        <v>12.30468789883316</v>
+        <v>13.8163164415593</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003138737412946382</v>
+        <v>0.0003700416417552921</v>
       </c>
       <c r="H191" t="n">
-        <v>11.75566364071128</v>
+        <v>15.41880702057546</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J191" t="n">
-        <v>11.75566364071128</v>
+        <v>15.41880702057546</v>
       </c>
       <c r="K191" t="n">
-        <v>0.000195100068921882</v>
+        <v>0.0001605337819679272</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>11.78920346222391</v>
+        <v>15.4756792611619</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001455522213206289</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D192" t="n">
-        <v>12.33848996482272</v>
+        <v>13.86479305205692</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F192" t="n">
-        <v>12.33848996482272</v>
+        <v>13.86479305205692</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002797252319711701</v>
+        <v>0.0003014325864569445</v>
       </c>
       <c r="H192" t="n">
-        <v>11.78920346222391</v>
+        <v>15.4756792611619</v>
       </c>
       <c r="I192" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J192" t="n">
-        <v>11.78920346222391</v>
+        <v>15.4756792611619</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0001596228808015786</v>
+        <v>0.0001390044223631402</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>11.82274328373654</v>
+        <v>15.53255150174834</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D193" t="n">
-        <v>12.37229203081228</v>
+        <v>13.91326966255455</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F193" t="n">
-        <v>12.37229203081228</v>
+        <v>13.91326966255455</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0002518178702135997</v>
+        <v>0.0002462955621122625</v>
       </c>
       <c r="H193" t="n">
-        <v>11.82274328373654</v>
+        <v>15.53255150174834</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J193" t="n">
-        <v>11.82274328373654</v>
+        <v>15.53255150174834</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0001380825932703849</v>
+        <v>0.0001229183692813153</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>11.85628310524918</v>
+        <v>15.58942374233478</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D194" t="n">
-        <v>12.40609409680184</v>
+        <v>13.96174627305218</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F194" t="n">
-        <v>12.40609409680184</v>
+        <v>13.96174627305218</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0002291805198046198</v>
+        <v>0.0002037093285674269</v>
       </c>
       <c r="H194" t="n">
-        <v>11.85628310524918</v>
+        <v>15.58942374233478</v>
       </c>
       <c r="I194" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J194" t="n">
-        <v>11.85628310524918</v>
+        <v>15.58942374233478</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0001235000563190608</v>
+        <v>0.000110496726182311</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>11.88982292676181</v>
+        <v>15.64629598292122</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D195" t="n">
-        <v>12.4398961627914</v>
+        <v>14.0102228835498</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F195" t="n">
-        <v>12.4398961627914</v>
+        <v>14.0102228835498</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0002109563796242206</v>
+        <v>0.0001722323683320331</v>
       </c>
       <c r="H195" t="n">
-        <v>11.88982292676181</v>
+        <v>15.64629598292122</v>
       </c>
       <c r="I195" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J195" t="n">
-        <v>11.88982292676181</v>
+        <v>15.64629598292122</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0001145607497927888</v>
+        <v>0.0001005814318073061</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>11.92336274827444</v>
+        <v>15.70316822350766</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D196" t="n">
-        <v>12.47369822878096</v>
+        <v>14.05869949404743</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F196" t="n">
-        <v>12.47369822878096</v>
+        <v>14.05869949404743</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0001963971329984078</v>
+        <v>0.0001511532558249377</v>
       </c>
       <c r="H196" t="n">
-        <v>11.92336274827444</v>
+        <v>15.70316822350766</v>
       </c>
       <c r="I196" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J196" t="n">
-        <v>11.92336274827444</v>
+        <v>15.70316822350766</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0001089453101412718</v>
+        <v>9.276965009656105e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11.95690256978707</v>
+        <v>15.7600404640941</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D197" t="n">
-        <v>12.50750029477052</v>
+        <v>14.10717610454506</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F197" t="n">
-        <v>12.50750029477052</v>
+        <v>14.10717610454506</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0001848557459984733</v>
+        <v>0.0001348407606736396</v>
       </c>
       <c r="H197" t="n">
-        <v>11.95690256978707</v>
+        <v>15.7600404640941</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J197" t="n">
-        <v>11.95690256978707</v>
+        <v>15.7600404640941</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0001048418518681021</v>
+        <v>8.669594386446149e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>11.9904423912997</v>
+        <v>15.81691270468053</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D198" t="n">
-        <v>12.54130236076008</v>
+        <v>14.15565271504268</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F198" t="n">
-        <v>12.54130236076008</v>
+        <v>14.15565271504268</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0001757783257567887</v>
+        <v>0.0001228870441799042</v>
       </c>
       <c r="H198" t="n">
-        <v>11.9904423912997</v>
+        <v>15.81691270468053</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J198" t="n">
-        <v>11.9904423912997</v>
+        <v>15.81691270468053</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0001039129727249345</v>
+        <v>8.203632763723265e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>12.02398221281234</v>
+        <v>15.87378494526697</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D199" t="n">
-        <v>12.57510442674964</v>
+        <v>14.20412932554031</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F199" t="n">
-        <v>12.57510442674964</v>
+        <v>14.20412932554031</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0001686954163189208</v>
+        <v>0.0001139389853358286</v>
       </c>
       <c r="H199" t="n">
-        <v>12.02398221281234</v>
+        <v>15.87378494526697</v>
       </c>
       <c r="I199" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J199" t="n">
-        <v>12.02398221281234</v>
+        <v>15.87378494526697</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0001039129727249345</v>
+        <v>7.850967170898583e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>12.05752203432497</v>
+        <v>15.93065718585341</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D200" t="n">
-        <v>12.6089064927392</v>
+        <v>14.25260593603793</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F200" t="n">
-        <v>12.6089064927392</v>
+        <v>14.25260593603793</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0001632130670065164</v>
+        <v>0.0001073030004996839</v>
       </c>
       <c r="H200" t="n">
-        <v>12.05752203432497</v>
+        <v>15.93065718585341</v>
       </c>
       <c r="I200" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J200" t="n">
-        <v>12.05752203432497</v>
+        <v>15.93065718585341</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0001039129727249345</v>
+        <v>7.587695092839251e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>12.0910618558376</v>
+        <v>15.98752942643985</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001073557030586843</v>
+        <v>0.0001073557062325349</v>
       </c>
       <c r="D201" t="n">
-        <v>12.64270855872876</v>
+        <v>14.30108254653556</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001552675594257646</v>
+        <v>0.0001126356511338229</v>
       </c>
       <c r="F201" t="n">
-        <v>12.64270855872876</v>
+        <v>14.30108254653556</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0001590039596384636</v>
+        <v>0.0001024615958323462</v>
       </c>
       <c r="H201" t="n">
-        <v>12.0910618558376</v>
+        <v>15.98752942643985</v>
       </c>
       <c r="I201" t="n">
-        <v>0.0001460783161668062</v>
+        <v>0.000124636522857198</v>
       </c>
       <c r="J201" t="n">
-        <v>12.0910618558376</v>
+        <v>15.98752942643985</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0001039129727249345</v>
+        <v>7.393886409318994e-05</v>
       </c>
     </row>
   </sheetData>
